--- a/Predictions/PV_cp_cnn.xlsx
+++ b/Predictions/PV_cp_cnn.xlsx
@@ -483,1244 +483,1244 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.608450412750244</v>
+        <v>6.603020668029785</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.700848579406738</v>
+        <v>-6.717272281646729</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.842687845230103</v>
+        <v>-2.701257467269897</v>
       </c>
       <c r="F2" t="n">
-        <v>4.079212188720703</v>
+        <v>6.586953163146973</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.009365558624268</v>
+        <v>-7.089458465576172</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.912566423416138</v>
+        <v>-2.867703676223755</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0001410983531968668</v>
+        <v>0.009113035164773464</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.003278049873188138</v>
+        <v>0.005692597478628159</v>
       </c>
       <c r="C3" t="n">
-        <v>5.612778186798096</v>
+        <v>6.231791973114014</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.390442848205566</v>
+        <v>-5.649197578430176</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.451043605804443</v>
+        <v>-3.14356803894043</v>
       </c>
       <c r="F3" t="n">
-        <v>4.172327518463135</v>
+        <v>6.354177474975586</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.36932897567749</v>
+        <v>-6.080187320709229</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.935220718383789</v>
+        <v>-3.771167278289795</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01622065342962742</v>
+        <v>0.02716542966663837</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0137885520234704</v>
+        <v>0.007332813926041126</v>
       </c>
       <c r="C4" t="n">
-        <v>5.1109299659729</v>
+        <v>5.49640941619873</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.021597385406494</v>
+        <v>-4.594337940216064</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.22138524055481</v>
+        <v>-3.211563348770142</v>
       </c>
       <c r="F4" t="n">
-        <v>3.687538623809814</v>
+        <v>6.287107467651367</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.074297428131104</v>
+        <v>-4.713741779327393</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.072689056396484</v>
+        <v>-4.070213794708252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0315568633377552</v>
+        <v>0.03870085626840591</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03570359572768211</v>
+        <v>0.01898052543401718</v>
       </c>
       <c r="C5" t="n">
-        <v>4.640537261962891</v>
+        <v>5.026502132415771</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.893841028213501</v>
+        <v>-3.874298810958862</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.525199174880981</v>
+        <v>-3.236760854721069</v>
       </c>
       <c r="F5" t="n">
-        <v>3.06502628326416</v>
+        <v>5.810821533203125</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.188868999481201</v>
+        <v>-3.804173231124878</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.728828907012939</v>
+        <v>-4.286324024200439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0563221350312233</v>
+        <v>0.06192870438098907</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06066553667187691</v>
+        <v>0.03712452575564384</v>
       </c>
       <c r="C6" t="n">
-        <v>3.880935907363892</v>
+        <v>4.080292224884033</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.562401056289673</v>
+        <v>-3.469776153564453</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.522181510925293</v>
+        <v>-2.929642200469971</v>
       </c>
       <c r="F6" t="n">
-        <v>2.355964660644531</v>
+        <v>5.068896293640137</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.786528348922729</v>
+        <v>-3.113420963287354</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.779290199279785</v>
+        <v>-3.709760665893555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.08927904814481735</v>
+        <v>0.08648649603128433</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07764832675457001</v>
+        <v>0.05435677990317345</v>
       </c>
       <c r="C7" t="n">
-        <v>2.870080232620239</v>
+        <v>3.079905986785889</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.001948356628418</v>
+        <v>-3.147404909133911</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.615495502948761</v>
+        <v>-2.133309125900269</v>
       </c>
       <c r="F7" t="n">
-        <v>1.873556613922119</v>
+        <v>4.364253044128418</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.782031059265137</v>
+        <v>-2.506178855895996</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.880960702896118</v>
+        <v>-2.950494527816772</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1174431964755058</v>
+        <v>0.1074274405837059</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1026119589805603</v>
+        <v>0.08299285173416138</v>
       </c>
       <c r="C8" t="n">
-        <v>2.006228446960449</v>
+        <v>2.226855516433716</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.662179708480835</v>
+        <v>-3.205004215240479</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2310262471437454</v>
+        <v>-1.32555878162384</v>
       </c>
       <c r="F8" t="n">
-        <v>1.164446830749512</v>
+        <v>3.193296909332275</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.512589931488037</v>
+        <v>-2.580834150314331</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.005599021911621</v>
+        <v>-1.639510273933411</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1474138349294662</v>
+        <v>0.1342321634292603</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1260228604078293</v>
+        <v>0.09834467619657516</v>
       </c>
       <c r="C9" t="n">
-        <v>1.086967945098877</v>
+        <v>1.134938478469849</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.907201766967773</v>
+        <v>-3.461523771286011</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4206389188766479</v>
+        <v>-0.7232906222343445</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4994437694549561</v>
+        <v>2.56554651260376</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.171615123748779</v>
+        <v>-2.72475004196167</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.3798069953918457</v>
+        <v>-0.6674717664718628</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1820380091667175</v>
+        <v>0.1548090130090714</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1592706292867661</v>
+        <v>0.1253627240657806</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02497455105185509</v>
+        <v>0.2967192828655243</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.350193977355957</v>
+        <v>-4.303929328918457</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9114038348197937</v>
+        <v>0.08029238879680634</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4449831545352936</v>
+        <v>1.460752964019775</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.320987224578857</v>
+        <v>-3.359796047210693</v>
       </c>
       <c r="H10" t="n">
-        <v>0.185952827334404</v>
+        <v>0.1951341480016708</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2091399431228638</v>
+        <v>0.1738819479942322</v>
       </c>
       <c r="B11" t="n">
-        <v>0.180701807141304</v>
+        <v>0.1500508338212967</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.8062971234321594</v>
+        <v>-0.4802359044551849</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.545606136322021</v>
+        <v>-5.078607082366943</v>
       </c>
       <c r="E11" t="n">
-        <v>1.476223587989807</v>
+        <v>0.447742760181427</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.053750514984131</v>
+        <v>0.45123291015625</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.288196563720703</v>
+        <v>-3.528985738754272</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5409188866615295</v>
+        <v>0.750216543674469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2317907512187958</v>
+        <v>0.1981608420610428</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2134312093257904</v>
+        <v>0.172021359205246</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.501044034957886</v>
+        <v>-1.469261407852173</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.011469841003418</v>
+        <v>-5.724422931671143</v>
       </c>
       <c r="E12" t="n">
-        <v>2.087578058242798</v>
+        <v>0.8527712821960449</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.983452200889587</v>
+        <v>-0.4471625685691833</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.543898105621338</v>
+        <v>-4.269432067871094</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8825313448905945</v>
+        <v>1.383758425712585</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2570963501930237</v>
+        <v>0.2200760245323181</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2433506846427917</v>
+        <v>0.1951772719621658</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.277217388153076</v>
+        <v>-2.361998081207275</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.225143432617188</v>
+        <v>-6.182202816009521</v>
       </c>
       <c r="E13" t="n">
-        <v>2.351687908172607</v>
+        <v>1.706907510757446</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.833335876464844</v>
+        <v>-1.394029498100281</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.112518787384033</v>
+        <v>-5.025537014007568</v>
       </c>
       <c r="H13" t="n">
-        <v>1.146900773048401</v>
+        <v>1.977745890617371</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2887407541275024</v>
+        <v>0.2405725717544556</v>
       </c>
       <c r="B14" t="n">
-        <v>0.267806351184845</v>
+        <v>0.2137143909931183</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.247816562652588</v>
+        <v>-3.196946620941162</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.45645809173584</v>
+        <v>-6.599022388458252</v>
       </c>
       <c r="E14" t="n">
-        <v>2.107063770294189</v>
+        <v>2.389016389846802</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.528016567230225</v>
+        <v>-2.152030467987061</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.686170101165771</v>
+        <v>-5.412317752838135</v>
       </c>
       <c r="H14" t="n">
-        <v>1.344561696052551</v>
+        <v>2.686167478561401</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3022669553756714</v>
+        <v>0.2615799605846405</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2902873158454895</v>
+        <v>0.235980361700058</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.662692785263062</v>
+        <v>-4.052703380584717</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.3250412940979</v>
+        <v>-6.818775177001953</v>
       </c>
       <c r="E15" t="n">
-        <v>2.79855751991272</v>
+        <v>3.30046820640564</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.166605472564697</v>
+        <v>-3.062506675720215</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.832510471343994</v>
+        <v>-5.992768287658691</v>
       </c>
       <c r="H15" t="n">
-        <v>1.631446838378906</v>
+        <v>3.340065956115723</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3292710185050964</v>
+        <v>0.2774182856082916</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3075498640537262</v>
+        <v>0.2615001499652863</v>
       </c>
       <c r="C16" t="n">
-        <v>-4.490962028503418</v>
+        <v>-4.69789457321167</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.396002769470215</v>
+        <v>-7.130636692047119</v>
       </c>
       <c r="E16" t="n">
-        <v>2.763913869857788</v>
+        <v>3.963380813598633</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.656960010528564</v>
+        <v>-4.106033802032471</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.466001987457275</v>
+        <v>-6.426523685455322</v>
       </c>
       <c r="H16" t="n">
-        <v>1.850950241088867</v>
+        <v>4.032398223876953</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3200941681861877</v>
+        <v>0.3032211363315582</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3269893825054169</v>
+        <v>0.2827977538108826</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.209489822387695</v>
+        <v>-5.748997211456299</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.174635410308838</v>
+        <v>-7.471865653991699</v>
       </c>
       <c r="E17" t="n">
-        <v>3.3045334815979</v>
+        <v>4.482977867126465</v>
       </c>
       <c r="F17" t="n">
-        <v>-5.209152698516846</v>
+        <v>-4.976914882659912</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.601137638092041</v>
+        <v>-7.063724517822266</v>
       </c>
       <c r="H17" t="n">
-        <v>2.392259120941162</v>
+        <v>4.497983932495117</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3686581552028656</v>
+        <v>0.3126831650733948</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3387125134468079</v>
+        <v>0.3027255535125732</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.699044227600098</v>
+        <v>-6.134444713592529</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.549153804779053</v>
+        <v>-8.248250961303711</v>
       </c>
       <c r="E18" t="n">
-        <v>3.19780445098877</v>
+        <v>4.870985507965088</v>
       </c>
       <c r="F18" t="n">
-        <v>-5.542156219482422</v>
+        <v>-5.791781902313232</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.326944828033447</v>
+        <v>-8.000052452087402</v>
       </c>
       <c r="H18" t="n">
-        <v>2.78461742401123</v>
+        <v>4.848622798919678</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3812651038169861</v>
+        <v>0.3262254595756531</v>
       </c>
       <c r="B19" t="n">
-        <v>0.355715811252594</v>
+        <v>0.329124927520752</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.085726261138916</v>
+        <v>-6.686102390289307</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.13227367401123</v>
+        <v>-8.216235160827637</v>
       </c>
       <c r="E19" t="n">
-        <v>4.024373054504395</v>
+        <v>5.238174915313721</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.025147438049316</v>
+        <v>-6.871276378631592</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.224015712738037</v>
+        <v>-8.473896026611328</v>
       </c>
       <c r="H19" t="n">
-        <v>3.231003046035767</v>
+        <v>5.47243595123291</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4118573665618896</v>
+        <v>0.3528056740760803</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3551405072212219</v>
+        <v>0.347048282623291</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.024052619934082</v>
+        <v>-7.768874645233154</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.279711723327637</v>
+        <v>-9.346758842468262</v>
       </c>
       <c r="E20" t="n">
-        <v>4.554728984832764</v>
+        <v>5.736559391021729</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.008805274963379</v>
+        <v>-7.604178428649902</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.380952835083008</v>
+        <v>-9.411657333374023</v>
       </c>
       <c r="H20" t="n">
-        <v>4.004302024841309</v>
+        <v>6.061307430267334</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4105377793312073</v>
+        <v>0.3607978522777557</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3969371616840363</v>
+        <v>0.3668817281723022</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.983578205108643</v>
+        <v>-8.094444274902344</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.142540454864502</v>
+        <v>-9.817672729492188</v>
       </c>
       <c r="E21" t="n">
-        <v>5.292097568511963</v>
+        <v>6.023598670959473</v>
       </c>
       <c r="F21" t="n">
-        <v>-7.19606876373291</v>
+        <v>-8.415186882019043</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.442262649536133</v>
+        <v>-9.828730583190918</v>
       </c>
       <c r="H21" t="n">
-        <v>4.845714092254639</v>
+        <v>6.613551616668701</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4351401925086975</v>
+        <v>0.3853239119052887</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3989817500114441</v>
+        <v>0.3876265287399292</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.738184928894043</v>
+        <v>-9.093538284301758</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.084736347198486</v>
+        <v>-9.4832763671875</v>
       </c>
       <c r="E22" t="n">
-        <v>5.634829998016357</v>
+        <v>6.601954460144043</v>
       </c>
       <c r="F22" t="n">
-        <v>-7.254146575927734</v>
+        <v>-9.263462066650391</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.061550140380859</v>
+        <v>-10.22992706298828</v>
       </c>
       <c r="H22" t="n">
-        <v>4.916495323181152</v>
+        <v>7.453001022338867</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4153968393802643</v>
+        <v>0.4188638627529144</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4178493022918701</v>
+        <v>0.3990187644958496</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.132615566253662</v>
+        <v>-10.45982074737549</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.488226890563965</v>
+        <v>-9.604144096374512</v>
       </c>
       <c r="E23" t="n">
-        <v>5.98349142074585</v>
+        <v>6.656284809112549</v>
       </c>
       <c r="F23" t="n">
-        <v>-7.790092468261719</v>
+        <v>-9.729301452636719</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.748085498809814</v>
+        <v>-10.19604969024658</v>
       </c>
       <c r="H23" t="n">
-        <v>5.173373222351074</v>
+        <v>7.876039505004883</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.447341650724411</v>
+        <v>0.4381017088890076</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4213009476661682</v>
+        <v>0.4208700656890869</v>
       </c>
       <c r="C24" t="n">
-        <v>-8.112428665161133</v>
+        <v>-11.24349498748779</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.077320098876953</v>
+        <v>-9.917606353759766</v>
       </c>
       <c r="E24" t="n">
-        <v>5.893998622894287</v>
+        <v>6.981663703918457</v>
       </c>
       <c r="F24" t="n">
-        <v>-7.888139247894287</v>
+        <v>-10.62282180786133</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.996737003326416</v>
+        <v>-10.17099380493164</v>
       </c>
       <c r="H24" t="n">
-        <v>5.807673931121826</v>
+        <v>8.441930770874023</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4544512927532196</v>
+        <v>0.458933562040329</v>
       </c>
       <c r="B25" t="n">
-        <v>0.449029803276062</v>
+        <v>0.4489552676677704</v>
       </c>
       <c r="C25" t="n">
-        <v>-8.33049488067627</v>
+        <v>-12.09210205078125</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.129693508148193</v>
+        <v>-9.232962608337402</v>
       </c>
       <c r="E25" t="n">
-        <v>5.432863235473633</v>
+        <v>6.851203918457031</v>
       </c>
       <c r="F25" t="n">
-        <v>-8.675796508789062</v>
+        <v>-11.77125263214111</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.870719432830811</v>
+        <v>-9.988009452819824</v>
       </c>
       <c r="H25" t="n">
-        <v>5.300197601318359</v>
+        <v>9.02443790435791</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4919186532497406</v>
+        <v>0.4677645862102509</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4631256461143494</v>
+        <v>0.4585477709770203</v>
       </c>
       <c r="C26" t="n">
-        <v>-9.479695320129395</v>
+        <v>-12.45184230804443</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.871583938598633</v>
+        <v>-8.781648635864258</v>
       </c>
       <c r="E26" t="n">
-        <v>4.490530490875244</v>
+        <v>6.757540225982666</v>
       </c>
       <c r="F26" t="n">
-        <v>-9.076199531555176</v>
+        <v>-12.163498878479</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.150728702545166</v>
+        <v>-9.453374862670898</v>
       </c>
       <c r="H26" t="n">
-        <v>4.201797008514404</v>
+        <v>9.370710372924805</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5026144981384277</v>
+        <v>0.4836105108261108</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4448800981044769</v>
+        <v>0.4776406288146973</v>
       </c>
       <c r="C27" t="n">
-        <v>-9.807759284973145</v>
+        <v>-13.09734153747559</v>
       </c>
       <c r="D27" t="n">
-        <v>-3.842953681945801</v>
+        <v>-7.641845226287842</v>
       </c>
       <c r="E27" t="n">
-        <v>2.414342164993286</v>
+        <v>6.427039623260498</v>
       </c>
       <c r="F27" t="n">
-        <v>-8.55792236328125</v>
+        <v>-12.94422245025635</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.28945255279541</v>
+        <v>-8.704809188842773</v>
       </c>
       <c r="H27" t="n">
-        <v>2.556650400161743</v>
+        <v>9.463361740112305</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5044241547584534</v>
+        <v>0.4860274791717529</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4677847325801849</v>
+        <v>0.494474470615387</v>
       </c>
       <c r="C28" t="n">
-        <v>-9.863265991210938</v>
+        <v>-13.19580078125</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.763720035552979</v>
+        <v>-6.233888149261475</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.4197389781475067</v>
+        <v>5.589474201202393</v>
       </c>
       <c r="F28" t="n">
-        <v>-9.208544731140137</v>
+        <v>-13.63257598876953</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.3466983139514923</v>
+        <v>-7.079666137695312</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.6407926082611084</v>
+        <v>8.090035438537598</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4921514093875885</v>
+        <v>0.4806077182292938</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4367880821228027</v>
+        <v>0.4907697737216949</v>
       </c>
       <c r="C29" t="n">
-        <v>-9.486834526062012</v>
+        <v>-12.97501945495605</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.7276996970176697</v>
+        <v>-3.968228578567505</v>
       </c>
       <c r="E29" t="n">
-        <v>-3.12174391746521</v>
+        <v>3.464075565338135</v>
       </c>
       <c r="F29" t="n">
-        <v>-8.328062057495117</v>
+        <v>-13.48108673095703</v>
       </c>
       <c r="G29" t="n">
-        <v>1.680268883705139</v>
+        <v>-4.572762966156006</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.817399024963379</v>
+        <v>5.069353580474854</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4932447671890259</v>
+        <v>0.4569123685359955</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4079015254974365</v>
+        <v>0.4845902621746063</v>
       </c>
       <c r="C30" t="n">
-        <v>-9.520370483398438</v>
+        <v>-12.00976657867432</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8594951629638672</v>
+        <v>-1.377305030822754</v>
       </c>
       <c r="E30" t="n">
-        <v>-6.37809419631958</v>
+        <v>0.2811439037322998</v>
       </c>
       <c r="F30" t="n">
-        <v>-7.507518768310547</v>
+        <v>-13.22840023040771</v>
       </c>
       <c r="G30" t="n">
-        <v>4.349353313446045</v>
+        <v>-1.812528848648071</v>
       </c>
       <c r="H30" t="n">
-        <v>-6.272558212280273</v>
+        <v>0.2507724165916443</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4567336142063141</v>
+        <v>0.4456150829792023</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3724181950092316</v>
+        <v>0.451274037361145</v>
       </c>
       <c r="C31" t="n">
-        <v>-8.40049934387207</v>
+        <v>-11.54955863952637</v>
       </c>
       <c r="D31" t="n">
-        <v>3.615845918655396</v>
+        <v>1.50708270072937</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.669204235076904</v>
+        <v>-3.956832647323608</v>
       </c>
       <c r="F31" t="n">
-        <v>-6.499589920043945</v>
+        <v>-11.86606979370117</v>
       </c>
       <c r="G31" t="n">
-        <v>6.720116138458252</v>
+        <v>1.543222069740295</v>
       </c>
       <c r="H31" t="n">
-        <v>-7.640519618988037</v>
+        <v>-5.927586078643799</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4112501740455627</v>
+        <v>0.4048496186733246</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3248036205768585</v>
+        <v>0.4153367877006531</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.005429744720459</v>
+        <v>-9.888936996459961</v>
       </c>
       <c r="D32" t="n">
-        <v>6.275787830352783</v>
+        <v>4.864097118377686</v>
       </c>
       <c r="E32" t="n">
-        <v>-9.435324668884277</v>
+        <v>-8.566390037536621</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.147065162658691</v>
+        <v>-10.396559715271</v>
       </c>
       <c r="G32" t="n">
-        <v>9.976713180541992</v>
+        <v>5.092581272125244</v>
       </c>
       <c r="H32" t="n">
-        <v>-7.339535236358643</v>
+        <v>-11.3577184677124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.3595205247402191</v>
+        <v>0.351800948381424</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2790798842906952</v>
+        <v>0.375355452299118</v>
       </c>
       <c r="C33" t="n">
-        <v>-5.418776035308838</v>
+        <v>-7.727946281433105</v>
       </c>
       <c r="D33" t="n">
-        <v>9.20643424987793</v>
+        <v>8.570253372192383</v>
       </c>
       <c r="E33" t="n">
-        <v>-9.033218383789062</v>
+        <v>-12.37456607818604</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.848249197006226</v>
+        <v>-8.761685371398926</v>
       </c>
       <c r="G33" t="n">
-        <v>11.58838176727295</v>
+        <v>9.23176383972168</v>
       </c>
       <c r="H33" t="n">
-        <v>-6.380217552185059</v>
+        <v>-14.53441905975342</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3021371364593506</v>
+        <v>0.3073782622814178</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7020586759824869</v>
+        <v>0.6172955310975901</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.658710241317749</v>
+        <v>-5.918344020843506</v>
       </c>
       <c r="D34" t="n">
-        <v>11.68734645843506</v>
+        <v>12.03157234191895</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.966716289520264</v>
+        <v>-13.39245128631592</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.142716884613037</v>
+        <v>-6.691074371337891</v>
       </c>
       <c r="G34" t="n">
-        <v>13.22048282623291</v>
+        <v>12.21225547790527</v>
       </c>
       <c r="H34" t="n">
-        <v>-4.733833789825439</v>
+        <v>-15.26066493988037</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.6932382720996532</v>
+        <v>0.6826614725918987</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9087960983336766</v>
+        <v>0.8127169548561568</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.537327766418457</v>
+        <v>-3.288909196853638</v>
       </c>
       <c r="D35" t="n">
-        <v>13.2634220123291</v>
+        <v>15.01721858978271</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.09485912322998</v>
+        <v>-12.68908309936523</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5293359160423279</v>
+        <v>-4.018712520599365</v>
       </c>
       <c r="G35" t="n">
-        <v>13.72397613525391</v>
+        <v>15.97461986541748</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.042824983596802</v>
+        <v>-13.63926315307617</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8981869366511078</v>
+        <v>0.892955330901757</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9808164175825334</v>
+        <v>0.9320936908610558</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2130859792232513</v>
+        <v>-0.6797488927841187</v>
       </c>
       <c r="D36" t="n">
-        <v>14.06448459625244</v>
+        <v>17.81250381469727</v>
       </c>
       <c r="E36" t="n">
-        <v>-5.289517402648926</v>
+        <v>-10.45454406738281</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9125791788101196</v>
+        <v>-1.2710942029953</v>
       </c>
       <c r="G36" t="n">
-        <v>14.35177898406982</v>
+        <v>18.79271507263184</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.895278930664062</v>
+        <v>-10.53701210021973</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9755893603705147</v>
+        <v>0.974196576807242</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9978836191238558</v>
+        <v>0.9835455240703639</v>
       </c>
       <c r="C37" t="n">
-        <v>1.710878849029541</v>
+        <v>1.398669242858887</v>
       </c>
       <c r="D37" t="n">
-        <v>13.41732788085938</v>
+        <v>19.10667610168457</v>
       </c>
       <c r="E37" t="n">
-        <v>-2.935014963150024</v>
+        <v>-7.227754592895508</v>
       </c>
       <c r="F37" t="n">
-        <v>2.418304204940796</v>
+        <v>1.335530996322632</v>
       </c>
       <c r="G37" t="n">
-        <v>13.2088508605957</v>
+        <v>20.64960479736328</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.2682492733001709</v>
+        <v>-6.864304542541504</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9961260046262398</v>
+        <v>0.9964257336646521</v>
       </c>
       <c r="B38" t="n">
-        <v>0.999870549961994</v>
+        <v>0.9975558146935053</v>
       </c>
       <c r="C38" t="n">
-        <v>3.028577089309692</v>
+        <v>3.612382173538208</v>
       </c>
       <c r="D38" t="n">
-        <v>12.31912899017334</v>
+        <v>20.32671737670898</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.9465380907058716</v>
+        <v>-4.372920513153076</v>
       </c>
       <c r="F38" t="n">
-        <v>3.158360242843628</v>
+        <v>3.367715358734131</v>
       </c>
       <c r="G38" t="n">
-        <v>11.64479064941406</v>
+        <v>21.02206039428711</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9426298141479492</v>
+        <v>-3.705466747283936</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9996870516750952</v>
+        <v>0.9997866736088675</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9999951225905331</v>
+        <v>0.9998469214264133</v>
       </c>
       <c r="C39" t="n">
-        <v>4.295247077941895</v>
+        <v>5.314438819885254</v>
       </c>
       <c r="D39" t="n">
-        <v>12.31455612182617</v>
+        <v>20.23545837402344</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5194170475006104</v>
+        <v>-1.619818806648254</v>
       </c>
       <c r="F39" t="n">
-        <v>3.511970043182373</v>
+        <v>5.229629993438721</v>
       </c>
       <c r="G39" t="n">
-        <v>8.600268363952637</v>
+        <v>20.60219383239746</v>
       </c>
       <c r="H39" t="n">
-        <v>1.803926110267639</v>
+        <v>-1.023674011230469</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9999862446558047</v>
+        <v>1.000001933948654</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9999997455598226</v>
+        <v>1.000001963236357</v>
       </c>
       <c r="C40" t="n">
-        <v>4.893925666809082</v>
+        <v>6.798749446868896</v>
       </c>
       <c r="D40" t="n">
-        <v>9.08301830291748</v>
+        <v>18.57555770874023</v>
       </c>
       <c r="E40" t="n">
-        <v>1.846282005310059</v>
+        <v>0.3231068253517151</v>
       </c>
       <c r="F40" t="n">
-        <v>3.293835639953613</v>
+        <v>6.864899635314941</v>
       </c>
       <c r="G40" t="n">
-        <v>6.954387187957764</v>
+        <v>19.74277305603027</v>
       </c>
       <c r="H40" t="n">
-        <v>2.173328161239624</v>
+        <v>1.04018759727478</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9999998491933202</v>
+        <v>0.9999998938821334</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9999999947154986</v>
+        <v>0.9999998599878829</v>
       </c>
       <c r="C41" t="n">
-        <v>5.430225849151611</v>
+        <v>7.787692070007324</v>
       </c>
       <c r="D41" t="n">
-        <v>6.745048522949219</v>
+        <v>16.5161190032959</v>
       </c>
       <c r="E41" t="n">
-        <v>2.839464664459229</v>
+        <v>1.744193553924561</v>
       </c>
       <c r="F41" t="n">
-        <v>3.766532421112061</v>
+        <v>8.132549285888672</v>
       </c>
       <c r="G41" t="n">
-        <v>3.511621952056885</v>
+        <v>17.3901538848877</v>
       </c>
       <c r="H41" t="n">
-        <v>2.736426830291748</v>
+        <v>2.545311212539673</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.999999999859167</v>
+        <v>1.000000007522922</v>
       </c>
       <c r="B42" t="n">
-        <v>1.000000000142661</v>
+        <v>1.000000013321476</v>
       </c>
       <c r="C42" t="n">
-        <v>5.593269348144531</v>
+        <v>8.133587837219238</v>
       </c>
       <c r="D42" t="n">
-        <v>4.306509971618652</v>
+        <v>14.40004825592041</v>
       </c>
       <c r="E42" t="n">
-        <v>3.387467384338379</v>
+        <v>2.67611837387085</v>
       </c>
       <c r="F42" t="n">
-        <v>4.485640525817871</v>
+        <v>8.648958206176758</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8298835158348083</v>
+        <v>14.00257873535156</v>
       </c>
       <c r="H42" t="n">
-        <v>2.510555267333984</v>
+        <v>3.402043104171753</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.000000000001248</v>
+        <v>0.9999999992472979</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9999999999957008</v>
+        <v>0.9999999984928964</v>
       </c>
       <c r="C43" t="n">
-        <v>5.752472877502441</v>
+        <v>8.763205528259277</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8945505619049072</v>
+        <v>10.5165319442749</v>
       </c>
       <c r="E43" t="n">
-        <v>3.385672569274902</v>
+        <v>3.16091513633728</v>
       </c>
       <c r="F43" t="n">
-        <v>4.532906055450439</v>
+        <v>9.038802146911621</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.615005612373352</v>
+        <v>10.15231609344482</v>
       </c>
       <c r="H43" t="n">
-        <v>2.225867033004761</v>
+        <v>3.756609201431274</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.999999999999984</v>
+        <v>1.000000000088931</v>
       </c>
       <c r="B44" t="n">
-        <v>1.000000000000248</v>
+        <v>1.000000000169764</v>
       </c>
       <c r="C44" t="n">
-        <v>5.816601753234863</v>
+        <v>9.15385627746582</v>
       </c>
       <c r="D44" t="n">
-        <v>-2.474824666976929</v>
+        <v>6.633625984191895</v>
       </c>
       <c r="E44" t="n">
-        <v>3.177057266235352</v>
+        <v>3.188759088516235</v>
       </c>
       <c r="F44" t="n">
-        <v>4.94806432723999</v>
+        <v>9.02816104888916</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.236023902893066</v>
+        <v>6.163589477539062</v>
       </c>
       <c r="H44" t="n">
-        <v>1.994662284851074</v>
+        <v>3.629373788833618</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999900134</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9999999999999847</v>
+        <v>0.9999999999829109</v>
       </c>
       <c r="C45" t="n">
-        <v>4.891953468322754</v>
+        <v>9.027494430541992</v>
       </c>
       <c r="D45" t="n">
-        <v>-5.320577144622803</v>
+        <v>2.630823135375977</v>
       </c>
       <c r="E45" t="n">
-        <v>2.443029642105103</v>
+        <v>2.789510488510132</v>
       </c>
       <c r="F45" t="n">
-        <v>5.009717464447021</v>
+        <v>8.768557548522949</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.695559024810791</v>
+        <v>1.450117707252502</v>
       </c>
       <c r="H45" t="n">
-        <v>1.941903948783875</v>
+        <v>3.03490138053894</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>1.000000000000973</v>
       </c>
       <c r="B46" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000001216</v>
       </c>
       <c r="C46" t="n">
-        <v>6.128425598144531</v>
+        <v>8.705483436584473</v>
       </c>
       <c r="D46" t="n">
-        <v>-6.879213809967041</v>
+        <v>-1.373162269592285</v>
       </c>
       <c r="E46" t="n">
-        <v>1.345996856689453</v>
+        <v>2.284487009048462</v>
       </c>
       <c r="F46" t="n">
-        <v>5.340903759002686</v>
+        <v>8.128541946411133</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.843363285064697</v>
+        <v>-3.01960825920105</v>
       </c>
       <c r="H46" t="n">
-        <v>1.44420599937439</v>
+        <v>2.467570543289185</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0.9999999999999146</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999416</v>
       </c>
       <c r="C47" t="n">
-        <v>6.865384101867676</v>
+        <v>8.497860908508301</v>
       </c>
       <c r="D47" t="n">
-        <v>-8.712915420532227</v>
+        <v>-5.486066341400146</v>
       </c>
       <c r="E47" t="n">
-        <v>0.786379337310791</v>
+        <v>1.660641074180603</v>
       </c>
       <c r="F47" t="n">
-        <v>5.407713413238525</v>
+        <v>7.62741756439209</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.486297607421875</v>
+        <v>-6.512321949005127</v>
       </c>
       <c r="H47" t="n">
-        <v>1.702845454216003</v>
+        <v>1.737098813056946</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>6.953008651733398</v>
+        <v>8.152885437011719</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.911245822906494</v>
+        <v>-8.386503219604492</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4726543426513672</v>
+        <v>1.003424286842346</v>
       </c>
       <c r="F48" t="n">
-        <v>5.659639835357666</v>
+        <v>7.016209125518799</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.746259689331055</v>
+        <v>-8.918225288391113</v>
       </c>
       <c r="H48" t="n">
-        <v>1.40256130695343</v>
+        <v>1.787755250930786</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>7.473770141601562</v>
+        <v>8.447345733642578</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.990440368652344</v>
+        <v>-10.14217376708984</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.006082784384489059</v>
+        <v>0.4724143147468567</v>
       </c>
       <c r="F49" t="n">
-        <v>5.180577278137207</v>
+        <v>6.86603832244873</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.968344211578369</v>
+        <v>-10.50555896759033</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7908424735069275</v>
+        <v>1.293361663818359</v>
       </c>
     </row>
     <row r="50">
@@ -1731,22 +1731,22 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>6.106098651885986</v>
+        <v>7.84868335723877</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.448551177978516</v>
+        <v>-11.09848690032959</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.457634299993515</v>
+        <v>-0.09948821365833282</v>
       </c>
       <c r="F50" t="n">
-        <v>5.303952693939209</v>
+        <v>6.512012481689453</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.716928005218506</v>
+        <v>-10.20005321502686</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.1031690537929535</v>
+        <v>1.021897435188293</v>
       </c>
     </row>
     <row r="51">
@@ -1757,22 +1757,22 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>6.501103401184082</v>
+        <v>7.706260681152344</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.623791694641113</v>
+        <v>-10.88101387023926</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.174187898635864</v>
+        <v>-0.6802714467048645</v>
       </c>
       <c r="F51" t="n">
-        <v>4.842281818389893</v>
+        <v>6.427446365356445</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.215117931365967</v>
+        <v>-9.958345413208008</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.191480159759521</v>
+        <v>0.02194288186728954</v>
       </c>
     </row>
     <row r="52">
@@ -1783,1296 +1783,1296 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>5.526861190795898</v>
+        <v>6.979845523834229</v>
       </c>
       <c r="D52" t="n">
-        <v>-6.743199825286865</v>
+        <v>-10.06130790710449</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.71330988407135</v>
+        <v>-1.842750191688538</v>
       </c>
       <c r="F52" t="n">
-        <v>4.89854097366333</v>
+        <v>6.490101337432861</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.191880226135254</v>
+        <v>-9.608553886413574</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.103507041931152</v>
+        <v>-1.288437604904175</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.008254907093942165</v>
+        <v>-0.01768178679049015</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.03354521840810776</v>
+        <v>-0.01245800126343966</v>
       </c>
       <c r="C53" t="n">
-        <v>5.355255603790283</v>
+        <v>7.323306083679199</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.036022663116455</v>
+        <v>-7.220093727111816</v>
       </c>
       <c r="E53" t="n">
-        <v>-2.624189138412476</v>
+        <v>-3.144952058792114</v>
       </c>
       <c r="F53" t="n">
-        <v>5.032087802886963</v>
+        <v>7.096372604370117</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.17943286895752</v>
+        <v>-7.764572620391846</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.648300647735596</v>
+        <v>-3.37303900718689</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.01983465813100338</v>
+        <v>-0.01856056787073612</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.02752508223056793</v>
+        <v>-0.0149231068789959</v>
       </c>
       <c r="C54" t="n">
-        <v>5.000081062316895</v>
+        <v>7.359104156494141</v>
       </c>
       <c r="D54" t="n">
-        <v>-6.848971843719482</v>
+        <v>-6.293802261352539</v>
       </c>
       <c r="E54" t="n">
-        <v>-3.467204809188843</v>
+        <v>-3.936821222305298</v>
       </c>
       <c r="F54" t="n">
-        <v>4.861081600189209</v>
+        <v>7.197173118591309</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.252480506896973</v>
+        <v>-6.922595500946045</v>
       </c>
       <c r="H54" t="n">
-        <v>-3.681160926818848</v>
+        <v>-4.405229568481445</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.03393647447228432</v>
+        <v>-0.0004712886002380401</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.01831005699932575</v>
+        <v>-0.009380553849041462</v>
       </c>
       <c r="C55" t="n">
-        <v>4.567549705505371</v>
+        <v>6.622219085693359</v>
       </c>
       <c r="D55" t="n">
-        <v>-5.776947975158691</v>
+        <v>-5.048723220825195</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.589218139648438</v>
+        <v>-3.967680692672729</v>
       </c>
       <c r="F55" t="n">
-        <v>4.599322319030762</v>
+        <v>6.970532894134521</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.201733589172363</v>
+        <v>-5.792693614959717</v>
       </c>
       <c r="H55" t="n">
-        <v>-4.131369590759277</v>
+        <v>-5.049035549163818</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.04935916513204575</v>
+        <v>0.01084503438323736</v>
       </c>
       <c r="B56" t="n">
-        <v>0.005450815428048372</v>
+        <v>0.01155887730419636</v>
       </c>
       <c r="C56" t="n">
-        <v>4.094504356384277</v>
+        <v>6.161237239837646</v>
       </c>
       <c r="D56" t="n">
-        <v>-4.794589042663574</v>
+        <v>-4.263029098510742</v>
       </c>
       <c r="E56" t="n">
-        <v>-2.980190277099609</v>
+        <v>-3.89143967628479</v>
       </c>
       <c r="F56" t="n">
-        <v>3.924377918243408</v>
+        <v>6.114299774169922</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.970456123352051</v>
+        <v>-4.723190307617188</v>
       </c>
       <c r="H56" t="n">
-        <v>-3.81401252746582</v>
+        <v>-4.939432144165039</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.07334519922733307</v>
+        <v>0.04405024275183678</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0257975310087204</v>
+        <v>0.0329337939620018</v>
       </c>
       <c r="C57" t="n">
-        <v>3.358803987503052</v>
+        <v>4.808589458465576</v>
       </c>
       <c r="D57" t="n">
-        <v>-4.256689071655273</v>
+        <v>-3.806140422821045</v>
       </c>
       <c r="E57" t="n">
-        <v>-2.120109558105469</v>
+        <v>-3.300704956054688</v>
       </c>
       <c r="F57" t="n">
-        <v>3.346415042877197</v>
+        <v>5.240259170532227</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.000958442687988</v>
+        <v>-3.956773281097412</v>
       </c>
       <c r="H57" t="n">
-        <v>-2.960239410400391</v>
+        <v>-4.310739517211914</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1002177149057388</v>
+        <v>0.06568025797605515</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05154136195778847</v>
+        <v>0.052027877420187</v>
       </c>
       <c r="C58" t="n">
-        <v>2.534569025039673</v>
+        <v>3.92746901512146</v>
       </c>
       <c r="D58" t="n">
-        <v>-3.771649599075317</v>
+        <v>-3.55396842956543</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.22284460067749</v>
+        <v>-2.458922386169434</v>
       </c>
       <c r="F58" t="n">
-        <v>2.615143299102783</v>
+        <v>4.459484100341797</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.63103175163269</v>
+        <v>-3.480753898620605</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.078724145889282</v>
+        <v>-3.315218925476074</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1232219934463501</v>
+        <v>0.09272254258394241</v>
       </c>
       <c r="B59" t="n">
-        <v>0.07787209749221802</v>
+        <v>0.07781518995761871</v>
       </c>
       <c r="C59" t="n">
-        <v>1.828981161117554</v>
+        <v>2.825874328613281</v>
       </c>
       <c r="D59" t="n">
-        <v>-4.307414054870605</v>
+        <v>-3.853786468505859</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5886399149894714</v>
+        <v>-1.592642545700073</v>
       </c>
       <c r="F59" t="n">
-        <v>1.867200136184692</v>
+        <v>3.405016422271729</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.544922351837158</v>
+        <v>-3.781179904937744</v>
       </c>
       <c r="H59" t="n">
-        <v>-1.124316811561584</v>
+        <v>-2.051010131835938</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1517050266265869</v>
+        <v>0.1229430511593819</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1040027067065239</v>
+        <v>0.1028567403554916</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9553478360176086</v>
+        <v>1.594811677932739</v>
       </c>
       <c r="D60" t="n">
-        <v>-4.432723999023438</v>
+        <v>-4.047662258148193</v>
       </c>
       <c r="E60" t="n">
-        <v>0.05045853927731514</v>
+        <v>-0.9294329881668091</v>
       </c>
       <c r="F60" t="n">
-        <v>1.124941825866699</v>
+        <v>2.381043910980225</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.931661128997803</v>
+        <v>-3.60454797744751</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.3777469396591187</v>
+        <v>-0.9532719850540161</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1806911081075668</v>
+        <v>0.1454924345016479</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1344905644655228</v>
+        <v>0.124787300825119</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06628617644309998</v>
+        <v>0.6762394309043884</v>
       </c>
       <c r="D61" t="n">
-        <v>-4.887636184692383</v>
+        <v>-4.740874767303467</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5524075031280518</v>
+        <v>-0.102105125784874</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2589123249053955</v>
+        <v>1.484282255172729</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.310245037078857</v>
+        <v>-4.156368732452393</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2307193577289581</v>
+        <v>-0.02607086487114429</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.2085712850093842</v>
+        <v>0.1696307063102722</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1626856774091721</v>
+        <v>0.1543264389038086</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.7888554930686951</v>
+        <v>-0.307057648897171</v>
       </c>
       <c r="D62" t="n">
-        <v>-5.018528461456299</v>
+        <v>-5.516570091247559</v>
       </c>
       <c r="E62" t="n">
-        <v>1.043167948722839</v>
+        <v>0.3531394600868225</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.5419895052909851</v>
+        <v>0.2763992547988892</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.913419246673584</v>
+        <v>-4.464606761932373</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6975999474525452</v>
+        <v>0.6457961201667786</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.2354989051818848</v>
+        <v>0.1970221698284149</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1983232945203781</v>
+        <v>0.1775290966033936</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.614780306816101</v>
+        <v>-1.422876000404358</v>
       </c>
       <c r="D63" t="n">
-        <v>-5.405578136444092</v>
+        <v>-6.010763168334961</v>
       </c>
       <c r="E63" t="n">
-        <v>1.56433641910553</v>
+        <v>0.9388691782951355</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.554301023483276</v>
+        <v>-0.6723794937133789</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.367476463317871</v>
+        <v>-5.085682392120361</v>
       </c>
       <c r="H63" t="n">
-        <v>1.089701414108276</v>
+        <v>1.334878444671631</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.2626015841960907</v>
+        <v>0.2201728820800781</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2282264977693558</v>
+        <v>0.203961580991745</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.446074962615967</v>
+        <v>-2.365944147109985</v>
       </c>
       <c r="D64" t="n">
-        <v>-5.839023113250732</v>
+        <v>-6.585073471069336</v>
       </c>
       <c r="E64" t="n">
-        <v>1.942137122154236</v>
+        <v>1.703743815422058</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.403722763061523</v>
+        <v>-1.753227710723877</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.100683212280273</v>
+        <v>-5.80414867401123</v>
       </c>
       <c r="H64" t="n">
-        <v>1.414336800575256</v>
+        <v>1.930959582328796</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.293480783700943</v>
+        <v>0.2419593632221222</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2579498589038849</v>
+        <v>0.2210744619369507</v>
       </c>
       <c r="C65" t="n">
-        <v>-3.393202304840088</v>
+        <v>-3.253438234329224</v>
       </c>
       <c r="D65" t="n">
-        <v>-6.165066242218018</v>
+        <v>-7.161922931671143</v>
       </c>
       <c r="E65" t="n">
-        <v>2.182939291000366</v>
+        <v>2.272809982299805</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.24803638458252</v>
+        <v>-2.452990293502808</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.632286071777344</v>
+        <v>-6.028047561645508</v>
       </c>
       <c r="H65" t="n">
-        <v>1.766478538513184</v>
+        <v>2.629541397094727</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.3134693801403046</v>
+        <v>0.2617596685886383</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2811363339424133</v>
+        <v>0.2457474917173386</v>
       </c>
       <c r="C66" t="n">
-        <v>-4.006293296813965</v>
+        <v>-4.060024261474609</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.583224296569824</v>
+        <v>-7.413979530334473</v>
       </c>
       <c r="E66" t="n">
-        <v>2.682642459869385</v>
+        <v>3.039290904998779</v>
       </c>
       <c r="F66" t="n">
-        <v>-3.906664133071899</v>
+        <v>-3.461893796920776</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.091855525970459</v>
+        <v>-6.742049217224121</v>
       </c>
       <c r="H66" t="n">
-        <v>2.060224771499634</v>
+        <v>3.356700420379639</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.3404896855354309</v>
+        <v>0.2847912013530731</v>
       </c>
       <c r="B67" t="n">
-        <v>0.310253769159317</v>
+        <v>0.2703709006309509</v>
       </c>
       <c r="C67" t="n">
-        <v>-4.835061550140381</v>
+        <v>-4.998235702514648</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.865059375762939</v>
+        <v>-7.859606266021729</v>
       </c>
       <c r="E67" t="n">
-        <v>3.191562175750732</v>
+        <v>3.676715135574341</v>
       </c>
       <c r="F67" t="n">
-        <v>-4.733765602111816</v>
+        <v>-4.46876859664917</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.556741714477539</v>
+        <v>-7.085687160491943</v>
       </c>
       <c r="H67" t="n">
-        <v>2.468866586685181</v>
+        <v>4.088940143585205</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.3529201447963715</v>
+        <v>0.3104692399501801</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3323750197887421</v>
+        <v>0.2946172654628754</v>
       </c>
       <c r="C68" t="n">
-        <v>-5.216328620910645</v>
+        <v>-6.044257164001465</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.534116744995117</v>
+        <v>-8.297651290893555</v>
       </c>
       <c r="E68" t="n">
-        <v>3.559122323989868</v>
+        <v>4.32709264755249</v>
       </c>
       <c r="F68" t="n">
-        <v>-5.36213493347168</v>
+        <v>-5.460225105285645</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.742637634277344</v>
+        <v>-7.746002197265625</v>
       </c>
       <c r="H68" t="n">
-        <v>3.027645587921143</v>
+        <v>4.555062770843506</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.3858184814453125</v>
+        <v>0.3275132179260254</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3542875051498413</v>
+        <v>0.3123122155666351</v>
       </c>
       <c r="C69" t="n">
-        <v>-6.225388050079346</v>
+        <v>-6.738560676574707</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.709924697875977</v>
+        <v>-9.030234336853027</v>
       </c>
       <c r="E69" t="n">
-        <v>3.895581245422363</v>
+        <v>4.803710460662842</v>
       </c>
       <c r="F69" t="n">
-        <v>-5.984575748443604</v>
+        <v>-6.183788299560547</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.821864128112793</v>
+        <v>-8.565621376037598</v>
       </c>
       <c r="H69" t="n">
-        <v>3.427993297576904</v>
+        <v>5.047443866729736</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4019422829151154</v>
+        <v>0.3499220609664917</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3748257458209991</v>
+        <v>0.3402863442897797</v>
       </c>
       <c r="C70" t="n">
-        <v>-6.719937324523926</v>
+        <v>-7.651407241821289</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.754998207092285</v>
+        <v>-9.311495780944824</v>
       </c>
       <c r="E70" t="n">
-        <v>4.405252456665039</v>
+        <v>5.428015232086182</v>
       </c>
       <c r="F70" t="n">
-        <v>-6.567977428436279</v>
+        <v>-7.327676773071289</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.769962310791016</v>
+        <v>-9.204501152038574</v>
       </c>
       <c r="H70" t="n">
-        <v>4.029295444488525</v>
+        <v>5.739825248718262</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.430572509765625</v>
+        <v>0.3749602138996124</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3896478712558746</v>
+        <v>0.3621375858783722</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.598084449768066</v>
+        <v>-8.67136287689209</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.828210830688477</v>
+        <v>-10.1577091217041</v>
       </c>
       <c r="E71" t="n">
-        <v>4.937105178833008</v>
+        <v>6.109237194061279</v>
       </c>
       <c r="F71" t="n">
-        <v>-6.989011287689209</v>
+        <v>-8.221194267272949</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.020666122436523</v>
+        <v>-9.851175308227539</v>
       </c>
       <c r="H71" t="n">
-        <v>4.558287143707275</v>
+        <v>6.240116596221924</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4380892515182495</v>
+        <v>0.3884696662425995</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4142694771289825</v>
+        <v>0.3850522637367249</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.828639984130859</v>
+        <v>-9.221683502197266</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.539660930633545</v>
+        <v>-10.47183895111084</v>
       </c>
       <c r="E72" t="n">
-        <v>5.225977897644043</v>
+        <v>6.677163600921631</v>
       </c>
       <c r="F72" t="n">
-        <v>-7.688406467437744</v>
+        <v>-9.158197402954102</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.967292308807373</v>
+        <v>-10.47211170196533</v>
       </c>
       <c r="H72" t="n">
-        <v>5.094868659973145</v>
+        <v>6.816496849060059</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.4549274742603302</v>
+        <v>0.4165462851524353</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4260665476322174</v>
+        <v>0.4100054800510406</v>
       </c>
       <c r="C73" t="n">
-        <v>-8.345101356506348</v>
+        <v>-10.36541271209717</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.405150413513184</v>
+        <v>-10.64290332794189</v>
       </c>
       <c r="E73" t="n">
-        <v>5.633398056030273</v>
+        <v>7.254585742950439</v>
       </c>
       <c r="F73" t="n">
-        <v>-8.02350902557373</v>
+        <v>-10.17855644226074</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.589108467102051</v>
+        <v>-10.82771110534668</v>
       </c>
       <c r="H73" t="n">
-        <v>5.536696910858154</v>
+        <v>7.534431457519531</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.4577338695526123</v>
+        <v>0.4452203810214996</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4456205368041992</v>
+        <v>0.42293781042099</v>
       </c>
       <c r="C74" t="n">
-        <v>-8.431179046630859</v>
+        <v>-11.53347969055176</v>
       </c>
       <c r="D74" t="n">
-        <v>-7.015018939971924</v>
+        <v>-10.46440887451172</v>
       </c>
       <c r="E74" t="n">
-        <v>5.827587127685547</v>
+        <v>7.644299030303955</v>
       </c>
       <c r="F74" t="n">
-        <v>-8.578953742980957</v>
+        <v>-10.70737457275391</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.06411075592041</v>
+        <v>-10.88384819030762</v>
       </c>
       <c r="H74" t="n">
-        <v>5.890935897827148</v>
+        <v>8.138671875</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.4759141802787781</v>
+        <v>0.4637488424777985</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4559883177280426</v>
+        <v>0.4497469067573547</v>
       </c>
       <c r="C75" t="n">
-        <v>-8.988805770874023</v>
+        <v>-12.28825569152832</v>
       </c>
       <c r="D75" t="n">
-        <v>-6.413269519805908</v>
+        <v>-10.70281791687012</v>
       </c>
       <c r="E75" t="n">
-        <v>5.772008419036865</v>
+        <v>8.009184837341309</v>
       </c>
       <c r="F75" t="n">
-        <v>-8.873458862304688</v>
+        <v>-11.80362129211426</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.655825138092041</v>
+        <v>-10.88427639007568</v>
       </c>
       <c r="H75" t="n">
-        <v>6.094919204711914</v>
+        <v>8.594420433044434</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.4873830378055573</v>
+        <v>0.4835188388824463</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4758558571338654</v>
+        <v>0.4719774723052979</v>
       </c>
       <c r="C76" t="n">
-        <v>-9.340579986572266</v>
+        <v>-13.09360885620117</v>
       </c>
       <c r="D76" t="n">
-        <v>-5.702871322631836</v>
+        <v>-9.920878410339355</v>
       </c>
       <c r="E76" t="n">
-        <v>5.146750450134277</v>
+        <v>8.068336486816406</v>
       </c>
       <c r="F76" t="n">
-        <v>-9.437809944152832</v>
+        <v>-12.71265125274658</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.871059417724609</v>
+        <v>-10.31560611724854</v>
       </c>
       <c r="H76" t="n">
-        <v>5.809881210327148</v>
+        <v>8.796582221984863</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4975070953369141</v>
+        <v>0.4981153607368469</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4811169803142548</v>
+        <v>0.4842443466186523</v>
       </c>
       <c r="C77" t="n">
-        <v>-9.651104927062988</v>
+        <v>-13.68821334838867</v>
       </c>
       <c r="D77" t="n">
-        <v>-4.893259525299072</v>
+        <v>-9.498202323913574</v>
       </c>
       <c r="E77" t="n">
-        <v>4.159780025482178</v>
+        <v>7.736598491668701</v>
       </c>
       <c r="F77" t="n">
-        <v>-9.58725643157959</v>
+        <v>-13.21425628662109</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.967807292938232</v>
+        <v>-9.608098983764648</v>
       </c>
       <c r="H77" t="n">
-        <v>4.944000244140625</v>
+        <v>9.140630722045898</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.5072473883628845</v>
+        <v>0.5163270235061646</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4864800870418549</v>
+        <v>0.5060163140296936</v>
       </c>
       <c r="C78" t="n">
-        <v>-9.949859619140625</v>
+        <v>-14.43008136749268</v>
       </c>
       <c r="D78" t="n">
-        <v>-3.58882737159729</v>
+        <v>-8.06766414642334</v>
       </c>
       <c r="E78" t="n">
-        <v>2.352079391479492</v>
+        <v>6.994792461395264</v>
       </c>
       <c r="F78" t="n">
-        <v>-9.739599227905273</v>
+        <v>-14.10453414916992</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.240841150283813</v>
+        <v>-8.563987731933594</v>
       </c>
       <c r="H78" t="n">
-        <v>3.085357904434204</v>
+        <v>8.839926719665527</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.512031614780426</v>
+        <v>0.5127356052398682</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4901382625102997</v>
+        <v>0.5174369215965271</v>
       </c>
       <c r="C79" t="n">
-        <v>-10.09660148620605</v>
+        <v>-14.28378200531006</v>
       </c>
       <c r="D79" t="n">
-        <v>-2.21778416633606</v>
+        <v>-6.273460388183594</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3610092103481293</v>
+        <v>5.302163600921631</v>
       </c>
       <c r="F79" t="n">
-        <v>-9.843512535095215</v>
+        <v>-14.57153224945068</v>
       </c>
       <c r="G79" t="n">
-        <v>-1.219531774520874</v>
+        <v>-6.959850788116455</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.01129934377968311</v>
+        <v>7.138209819793701</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.4965094029903412</v>
+        <v>0.5031191110610962</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4609502255916595</v>
+        <v>0.5116935968399048</v>
       </c>
       <c r="C80" t="n">
-        <v>-9.620504379272461</v>
+        <v>-13.89204502105713</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1400504112243652</v>
+        <v>-3.71508526802063</v>
       </c>
       <c r="E80" t="n">
-        <v>-3.518921375274658</v>
+        <v>2.21127462387085</v>
       </c>
       <c r="F80" t="n">
-        <v>-9.014405250549316</v>
+        <v>-14.33668231964111</v>
       </c>
       <c r="G80" t="n">
-        <v>1.108737349510193</v>
+        <v>-4.224279880523682</v>
       </c>
       <c r="H80" t="n">
-        <v>-3.480624675750732</v>
+        <v>3.990393400192261</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4748232066631317</v>
+        <v>0.4752174019813538</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4266458451747894</v>
+        <v>0.496974378824234</v>
       </c>
       <c r="C81" t="n">
-        <v>-8.955345153808594</v>
+        <v>-12.7554407119751</v>
       </c>
       <c r="D81" t="n">
-        <v>2.231768131256104</v>
+        <v>-0.7379404902458191</v>
       </c>
       <c r="E81" t="n">
-        <v>-6.576114654541016</v>
+        <v>-1.516932010650635</v>
       </c>
       <c r="F81" t="n">
-        <v>-8.03996467590332</v>
+        <v>-13.7347993850708</v>
       </c>
       <c r="G81" t="n">
-        <v>4.2250075340271</v>
+        <v>-1.182316899299622</v>
       </c>
       <c r="H81" t="n">
-        <v>-6.752844333648682</v>
+        <v>-0.7858800888061523</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.4417006373405457</v>
+        <v>0.4532165825366974</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3866454362869263</v>
+        <v>0.4628207683563232</v>
       </c>
       <c r="C82" t="n">
-        <v>-7.939406871795654</v>
+        <v>-11.85921287536621</v>
       </c>
       <c r="D82" t="n">
-        <v>5.047783851623535</v>
+        <v>3.026844263076782</v>
       </c>
       <c r="E82" t="n">
-        <v>-8.605020523071289</v>
+        <v>-6.097791194915771</v>
       </c>
       <c r="F82" t="n">
-        <v>-6.903724670410156</v>
+        <v>-12.33822631835938</v>
       </c>
       <c r="G82" t="n">
-        <v>7.082390785217285</v>
+        <v>2.515216827392578</v>
       </c>
       <c r="H82" t="n">
-        <v>-8.658434867858887</v>
+        <v>-6.439419746398926</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.3866129815578461</v>
+        <v>0.4115289151668549</v>
       </c>
       <c r="B83" t="n">
-        <v>0.340414822101593</v>
+        <v>0.424272894859314</v>
       </c>
       <c r="C83" t="n">
-        <v>-6.249757766723633</v>
+        <v>-10.16102504730225</v>
       </c>
       <c r="D83" t="n">
-        <v>7.666670322418213</v>
+        <v>7.07327127456665</v>
       </c>
       <c r="E83" t="n">
-        <v>-9.464054107666016</v>
+        <v>-10.22659873962402</v>
       </c>
       <c r="F83" t="n">
-        <v>-5.590511322021484</v>
+        <v>-10.76196575164795</v>
       </c>
       <c r="G83" t="n">
-        <v>10.13969707489014</v>
+        <v>6.776482105255127</v>
       </c>
       <c r="H83" t="n">
-        <v>-8.536595344543457</v>
+        <v>-11.53512859344482</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.3388038575649261</v>
+        <v>0.3488155901432037</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2834933996200562</v>
+        <v>0.3740854561328888</v>
       </c>
       <c r="C84" t="n">
-        <v>-4.783353328704834</v>
+        <v>-7.606335639953613</v>
       </c>
       <c r="D84" t="n">
-        <v>10.7393970489502</v>
+        <v>11.22489643096924</v>
       </c>
       <c r="E84" t="n">
-        <v>-9.310623168945312</v>
+        <v>-13.04474353790283</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.973618507385254</v>
+        <v>-8.70975399017334</v>
       </c>
       <c r="G84" t="n">
-        <v>12.59521102905273</v>
+        <v>11.1815185546875</v>
       </c>
       <c r="H84" t="n">
-        <v>-7.533472537994385</v>
+        <v>-14.20053386688232</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.2735564410686493</v>
+        <v>0.2971459031105042</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7072420432335066</v>
+        <v>0.6208825968718419</v>
       </c>
       <c r="C85" t="n">
-        <v>-2.782082557678223</v>
+        <v>-5.501516819000244</v>
       </c>
       <c r="D85" t="n">
-        <v>13.03684139251709</v>
+        <v>14.935622215271</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.996071338653564</v>
+        <v>-13.29579544067383</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.072131156921387</v>
+        <v>-6.539931774139404</v>
       </c>
       <c r="G85" t="n">
-        <v>14.2957878112793</v>
+        <v>14.88637924194336</v>
       </c>
       <c r="H85" t="n">
-        <v>-5.630890369415283</v>
+        <v>-14.80350875854492</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.7075745599216705</v>
+        <v>0.6975904004787745</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9107959344368504</v>
+        <v>0.8187615306029958</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.9353750348091125</v>
+        <v>-2.68631649017334</v>
       </c>
       <c r="D86" t="n">
-        <v>14.25207996368408</v>
+        <v>18.44668388366699</v>
       </c>
       <c r="E86" t="n">
-        <v>-5.823334693908691</v>
+        <v>-12.00558948516846</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5080905556678772</v>
+        <v>-3.773521423339844</v>
       </c>
       <c r="G86" t="n">
-        <v>15.47901058197021</v>
+        <v>18.53716087341309</v>
       </c>
       <c r="H86" t="n">
-        <v>-3.478320598602295</v>
+        <v>-13.07069110870361</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9142807730834267</v>
+        <v>0.9066487633446423</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9823537347329448</v>
+        <v>0.9366238606329947</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8432461619377136</v>
+        <v>-0.06165239587426186</v>
       </c>
       <c r="D87" t="n">
-        <v>15.11473941802979</v>
+        <v>20.87163734436035</v>
       </c>
       <c r="E87" t="n">
-        <v>-4.037564754486084</v>
+        <v>-9.267399787902832</v>
       </c>
       <c r="F87" t="n">
-        <v>1.101041316986084</v>
+        <v>-0.9914615154266357</v>
       </c>
       <c r="G87" t="n">
-        <v>15.81064701080322</v>
+        <v>21.24370765686035</v>
       </c>
       <c r="H87" t="n">
-        <v>-1.747856855392456</v>
+        <v>-9.794025421142578</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9826152541949102</v>
+        <v>0.9815012027835477</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9984007471728207</v>
+        <v>0.9855058130836305</v>
       </c>
       <c r="C88" t="n">
-        <v>2.311529397964478</v>
+        <v>2.32465672492981</v>
       </c>
       <c r="D88" t="n">
-        <v>14.74594783782959</v>
+        <v>21.79055213928223</v>
       </c>
       <c r="E88" t="n">
-        <v>-1.924061179161072</v>
+        <v>-6.124850273132324</v>
       </c>
       <c r="F88" t="n">
-        <v>2.714799404144287</v>
+        <v>1.630499362945557</v>
       </c>
       <c r="G88" t="n">
-        <v>14.54464817047119</v>
+        <v>22.70247077941895</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.06521567702293396</v>
+        <v>-5.966102600097656</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9977479587174818</v>
+        <v>0.998112374676605</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9999469839655784</v>
+        <v>0.9980661782864554</v>
       </c>
       <c r="C89" t="n">
-        <v>3.502605199813843</v>
+        <v>4.399959087371826</v>
       </c>
       <c r="D89" t="n">
-        <v>13.47297668457031</v>
+        <v>22.47345352172852</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.1163348704576492</v>
+        <v>-3.154174089431763</v>
       </c>
       <c r="F89" t="n">
-        <v>3.580130577087402</v>
+        <v>3.695437431335449</v>
       </c>
       <c r="G89" t="n">
-        <v>13.00129985809326</v>
+        <v>23.06363296508789</v>
       </c>
       <c r="H89" t="n">
-        <v>1.249635219573975</v>
+        <v>-2.866153240203857</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9998520863433897</v>
+        <v>0.9999623923144723</v>
       </c>
       <c r="B90" t="n">
-        <v>1.000000719811805</v>
+        <v>0.9999152271890585</v>
       </c>
       <c r="C90" t="n">
-        <v>4.54074764251709</v>
+        <v>6.17287540435791</v>
       </c>
       <c r="D90" t="n">
-        <v>12.50243949890137</v>
+        <v>21.93517875671387</v>
       </c>
       <c r="E90" t="n">
-        <v>1.300381898880005</v>
+        <v>-0.4312044084072113</v>
       </c>
       <c r="F90" t="n">
-        <v>4.283617973327637</v>
+        <v>5.636910438537598</v>
       </c>
       <c r="G90" t="n">
-        <v>10.79183006286621</v>
+        <v>22.17527008056641</v>
       </c>
       <c r="H90" t="n">
-        <v>2.269431591033936</v>
+        <v>-0.2660934925079346</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9999955307627914</v>
+        <v>1.000001545681709</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9999999744659896</v>
+        <v>1.000002866360883</v>
       </c>
       <c r="C91" t="n">
-        <v>5.11726713180542</v>
+        <v>7.490376472473145</v>
       </c>
       <c r="D91" t="n">
-        <v>9.452712059020996</v>
+        <v>19.5614070892334</v>
       </c>
       <c r="E91" t="n">
-        <v>2.556634426116943</v>
+        <v>1.531406998634338</v>
       </c>
       <c r="F91" t="n">
-        <v>4.613261699676514</v>
+        <v>7.31973934173584</v>
       </c>
       <c r="G91" t="n">
-        <v>8.510260581970215</v>
+        <v>20.75636672973633</v>
       </c>
       <c r="H91" t="n">
-        <v>2.633926391601562</v>
+        <v>1.838911652565002</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9999999691320544</v>
+        <v>0.9999998576183083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.000000001141987</v>
+        <v>0.9999997445878041</v>
       </c>
       <c r="C92" t="n">
-        <v>5.496172904968262</v>
+        <v>8.591808319091797</v>
       </c>
       <c r="D92" t="n">
-        <v>7.144974231719971</v>
+        <v>16.88200759887695</v>
       </c>
       <c r="E92" t="n">
-        <v>3.257375001907349</v>
+        <v>2.909717082977295</v>
       </c>
       <c r="F92" t="n">
-        <v>4.752535343170166</v>
+        <v>8.518093109130859</v>
       </c>
       <c r="G92" t="n">
-        <v>5.653538703918457</v>
+        <v>17.91957855224609</v>
       </c>
       <c r="H92" t="n">
-        <v>3.110992670059204</v>
+        <v>3.009490489959717</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9999999998656074</v>
+        <v>1.000000014530643</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9999999999216391</v>
+        <v>1.000000029884228</v>
       </c>
       <c r="C93" t="n">
-        <v>5.537674427032471</v>
+        <v>8.806378364562988</v>
       </c>
       <c r="D93" t="n">
-        <v>4.119136810302734</v>
+        <v>13.52058506011963</v>
       </c>
       <c r="E93" t="n">
-        <v>3.478014230728149</v>
+        <v>3.584663867950439</v>
       </c>
       <c r="F93" t="n">
-        <v>5.112257957458496</v>
+        <v>9.122685432434082</v>
       </c>
       <c r="G93" t="n">
-        <v>2.531620264053345</v>
+        <v>14.17276668548584</v>
       </c>
       <c r="H93" t="n">
-        <v>2.717946290969849</v>
+        <v>3.805321455001831</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.000000000001377</v>
+        <v>0.9999999980267541</v>
       </c>
       <c r="B94" t="n">
-        <v>1.000000000006451</v>
+        <v>0.999999995793497</v>
       </c>
       <c r="C94" t="n">
-        <v>5.77500581741333</v>
+        <v>9.534931182861328</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6752854585647583</v>
+        <v>9.078075408935547</v>
       </c>
       <c r="E94" t="n">
-        <v>3.319040298461914</v>
+        <v>3.654674291610718</v>
       </c>
       <c r="F94" t="n">
-        <v>5.31862735748291</v>
+        <v>9.637531280517578</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.4654381573200226</v>
+        <v>9.848474502563477</v>
       </c>
       <c r="H94" t="n">
-        <v>2.231398820877075</v>
+        <v>4.024582862854004</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000283653</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9999999999994228</v>
+        <v>1.000000000593755</v>
       </c>
       <c r="C95" t="n">
-        <v>5.585209846496582</v>
+        <v>9.706583023071289</v>
       </c>
       <c r="D95" t="n">
-        <v>-2.663637638092041</v>
+        <v>4.730387210845947</v>
       </c>
       <c r="E95" t="n">
-        <v>2.88777756690979</v>
+        <v>3.326337814331055</v>
       </c>
       <c r="F95" t="n">
-        <v>5.426361083984375</v>
+        <v>9.646018981933594</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.583105325698853</v>
+        <v>5.752170085906982</v>
       </c>
       <c r="H95" t="n">
-        <v>1.79964280128479</v>
+        <v>3.744088172912598</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0.9999999999600423</v>
       </c>
       <c r="B96" t="n">
-        <v>1.00000000000005</v>
+        <v>0.9999999999123746</v>
       </c>
       <c r="C96" t="n">
-        <v>5.315535545349121</v>
+        <v>9.644381523132324</v>
       </c>
       <c r="D96" t="n">
-        <v>-5.748325347900391</v>
+        <v>0.1964336633682251</v>
       </c>
       <c r="E96" t="n">
-        <v>2.125953435897827</v>
+        <v>2.584278345108032</v>
       </c>
       <c r="F96" t="n">
-        <v>5.388086795806885</v>
+        <v>9.785301208496094</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.271326065063477</v>
+        <v>0.9575305581092834</v>
       </c>
       <c r="H96" t="n">
-        <v>1.513772249221802</v>
+        <v>3.024662733078003</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>1.000000000004922</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9999999999999951</v>
+        <v>1.000000000011359</v>
       </c>
       <c r="C97" t="n">
-        <v>5.703404426574707</v>
+        <v>9.262290000915527</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.701973915100098</v>
+        <v>-3.940850734710693</v>
       </c>
       <c r="E97" t="n">
-        <v>1.413880467414856</v>
+        <v>1.73100471496582</v>
       </c>
       <c r="F97" t="n">
-        <v>5.553491592407227</v>
+        <v>9.396275520324707</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.968430042266846</v>
+        <v>-3.386542081832886</v>
       </c>
       <c r="H97" t="n">
-        <v>1.208068013191223</v>
+        <v>2.392759561538696</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>0.9999999999993748</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0.9999999999988972</v>
       </c>
       <c r="C98" t="n">
-        <v>5.895166397094727</v>
+        <v>9.345439910888672</v>
       </c>
       <c r="D98" t="n">
-        <v>-9.237080574035645</v>
+        <v>-7.617827892303467</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9669573903083801</v>
+        <v>1.091574907302856</v>
       </c>
       <c r="F98" t="n">
-        <v>5.635179996490479</v>
+        <v>8.690975189208984</v>
       </c>
       <c r="G98" t="n">
-        <v>-9.113072395324707</v>
+        <v>-6.907538414001465</v>
       </c>
       <c r="H98" t="n">
-        <v>1.419050693511963</v>
+        <v>1.823142170906067</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>1.000000000000067</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>1.000000000000086</v>
       </c>
       <c r="C99" t="n">
-        <v>6.001489162445068</v>
+        <v>8.913647651672363</v>
       </c>
       <c r="D99" t="n">
-        <v>-9.158894538879395</v>
+        <v>-10.02621555328369</v>
       </c>
       <c r="E99" t="n">
-        <v>0.7486571669578552</v>
+        <v>0.5411117672920227</v>
       </c>
       <c r="F99" t="n">
-        <v>5.810380458831787</v>
+        <v>8.272621154785156</v>
       </c>
       <c r="G99" t="n">
-        <v>-9.024750709533691</v>
+        <v>-9.561421394348145</v>
       </c>
       <c r="H99" t="n">
-        <v>1.30549156665802</v>
+        <v>1.629445552825928</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0.9999999999999925</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0.9999999999999944</v>
       </c>
       <c r="C100" t="n">
-        <v>6.304884910583496</v>
+        <v>9.034580230712891</v>
       </c>
       <c r="D100" t="n">
-        <v>-9.318449020385742</v>
+        <v>-11.44445419311523</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4841528534889221</v>
+        <v>0.1168864667415619</v>
       </c>
       <c r="F100" t="n">
-        <v>5.394015312194824</v>
+        <v>8.003261566162109</v>
       </c>
       <c r="G100" t="n">
-        <v>-8.669889450073242</v>
+        <v>-11.53462409973145</v>
       </c>
       <c r="H100" t="n">
-        <v>0.7386026382446289</v>
+        <v>1.318369150161743</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>5.83400821685791</v>
+        <v>8.66631031036377</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.790947914123535</v>
+        <v>-12.2178201675415</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.1945212334394455</v>
+        <v>-0.5997527241706848</v>
       </c>
       <c r="F101" t="n">
-        <v>5.542956352233887</v>
+        <v>7.50367546081543</v>
       </c>
       <c r="G101" t="n">
-        <v>-8.194171905517578</v>
+        <v>-11.66752338409424</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.2372357845306396</v>
+        <v>0.6697214841842651</v>
       </c>
     </row>
     <row r="102">
@@ -3083,22 +3083,22 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>5.636762142181396</v>
+        <v>8.199849128723145</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.900230884552002</v>
+        <v>-11.65793895721436</v>
       </c>
       <c r="E102" t="n">
-        <v>-1.070743203163147</v>
+        <v>-1.270280003547668</v>
       </c>
       <c r="F102" t="n">
-        <v>5.194886684417725</v>
+        <v>7.377382278442383</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.359860897064209</v>
+        <v>-11.50409030914307</v>
       </c>
       <c r="H102" t="n">
-        <v>-1.414244890213013</v>
+        <v>-0.4745358228683472</v>
       </c>
     </row>
     <row r="103">
@@ -3109,1270 +3109,1270 @@
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>5.057013511657715</v>
+        <v>7.443161010742188</v>
       </c>
       <c r="D103" t="n">
-        <v>-6.702338218688965</v>
+        <v>-10.57922649383545</v>
       </c>
       <c r="E103" t="n">
-        <v>-1.882887005805969</v>
+        <v>-2.441337585449219</v>
       </c>
       <c r="F103" t="n">
-        <v>4.945264339447021</v>
+        <v>7.181665420532227</v>
       </c>
       <c r="G103" t="n">
-        <v>-6.316233158111572</v>
+        <v>-10.89468955993652</v>
       </c>
       <c r="H103" t="n">
-        <v>-2.520730495452881</v>
+        <v>-1.815755844116211</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.007248127833008766</v>
+        <v>-0.02708283625543118</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.0491601936519146</v>
+        <v>-0.02184057421982288</v>
       </c>
       <c r="C104" t="n">
-        <v>5.386135578155518</v>
+        <v>7.706267356872559</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.512197017669678</v>
+        <v>-7.461526393890381</v>
       </c>
       <c r="E104" t="n">
-        <v>-2.507219076156616</v>
+        <v>-3.327543497085571</v>
       </c>
       <c r="F104" t="n">
-        <v>5.475642204284668</v>
+        <v>7.480034828186035</v>
       </c>
       <c r="G104" t="n">
-        <v>-7.618683815002441</v>
+        <v>-7.968884468078613</v>
       </c>
       <c r="H104" t="n">
-        <v>-2.504074811935425</v>
+        <v>-3.556674003601074</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.02121252752840519</v>
+        <v>-0.03168711811304092</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.0467347539961338</v>
+        <v>-0.02715980261564255</v>
       </c>
       <c r="C105" t="n">
-        <v>4.957818984985352</v>
+        <v>7.893827438354492</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.512552261352539</v>
+        <v>-6.571806907653809</v>
       </c>
       <c r="E105" t="n">
-        <v>-3.340714931488037</v>
+        <v>-4.250320911407471</v>
       </c>
       <c r="F105" t="n">
-        <v>5.406745910644531</v>
+        <v>7.697543144226074</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.689942359924316</v>
+        <v>-7.173801898956299</v>
       </c>
       <c r="H105" t="n">
-        <v>-3.51610255241394</v>
+        <v>-4.642015933990479</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.03642197325825691</v>
+        <v>-0.01274483278393745</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.03751346468925476</v>
+        <v>-0.02151231095194817</v>
       </c>
       <c r="C106" t="n">
-        <v>4.49131441116333</v>
+        <v>7.122194290161133</v>
       </c>
       <c r="D106" t="n">
-        <v>-6.485272884368896</v>
+        <v>-5.300345897674561</v>
       </c>
       <c r="E106" t="n">
-        <v>-3.59561824798584</v>
+        <v>-4.298306941986084</v>
       </c>
       <c r="F106" t="n">
-        <v>5.144808769226074</v>
+        <v>7.466611862182617</v>
       </c>
       <c r="G106" t="n">
-        <v>-6.670794486999512</v>
+        <v>-6.077291011810303</v>
       </c>
       <c r="H106" t="n">
-        <v>-4.085144519805908</v>
+        <v>-5.386759757995605</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.05169893428683281</v>
+        <v>-0.0006517529836855829</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.01267542783170938</v>
+        <v>0.002500159665942192</v>
       </c>
       <c r="C107" t="n">
-        <v>4.022738933563232</v>
+        <v>6.629570484161377</v>
       </c>
       <c r="D107" t="n">
-        <v>-5.516424179077148</v>
+        <v>-4.485629081726074</v>
       </c>
       <c r="E107" t="n">
-        <v>-3.168484687805176</v>
+        <v>-4.209280490875244</v>
       </c>
       <c r="F107" t="n">
-        <v>4.439266681671143</v>
+        <v>6.484719276428223</v>
       </c>
       <c r="G107" t="n">
-        <v>-5.430045127868652</v>
+        <v>-5.043803691864014</v>
       </c>
       <c r="H107" t="n">
-        <v>-3.878894805908203</v>
+        <v>-5.265294075012207</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.07317275553941727</v>
+        <v>0.03536731749773026</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01045824494212866</v>
+        <v>0.02722242288291454</v>
       </c>
       <c r="C108" t="n">
-        <v>3.364093065261841</v>
+        <v>5.162297248840332</v>
       </c>
       <c r="D108" t="n">
-        <v>-4.870311260223389</v>
+        <v>-4.04416561126709</v>
       </c>
       <c r="E108" t="n">
-        <v>-2.434668064117432</v>
+        <v>-3.525903940200806</v>
       </c>
       <c r="F108" t="n">
-        <v>3.782138347625732</v>
+        <v>5.47380256652832</v>
       </c>
       <c r="G108" t="n">
-        <v>-4.435876369476318</v>
+        <v>-4.287362575531006</v>
       </c>
       <c r="H108" t="n">
-        <v>-3.134641408920288</v>
+        <v>-4.606000423431396</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.09957673400640488</v>
+        <v>0.05721898376941681</v>
       </c>
       <c r="B109" t="n">
-        <v>0.03733578324317932</v>
+        <v>0.04787613078951836</v>
       </c>
       <c r="C109" t="n">
-        <v>2.554229497909546</v>
+        <v>4.272147655487061</v>
       </c>
       <c r="D109" t="n">
-        <v>-4.358646869659424</v>
+        <v>-3.868036031723022</v>
       </c>
       <c r="E109" t="n">
-        <v>-1.543624639511108</v>
+        <v>-2.684056520462036</v>
       </c>
       <c r="F109" t="n">
-        <v>3.018662929534912</v>
+        <v>4.629252910614014</v>
       </c>
       <c r="G109" t="n">
-        <v>-4.021602153778076</v>
+        <v>-3.897655487060547</v>
       </c>
       <c r="H109" t="n">
-        <v>-2.247629165649414</v>
+        <v>-3.538863182067871</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.1222800612449646</v>
+        <v>0.08639481663703918</v>
       </c>
       <c r="B110" t="n">
-        <v>0.06568566709756851</v>
+        <v>0.07479947060346603</v>
       </c>
       <c r="C110" t="n">
-        <v>1.857872009277344</v>
+        <v>3.083640813827515</v>
       </c>
       <c r="D110" t="n">
-        <v>-4.780213356018066</v>
+        <v>-4.183282852172852</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.8477462530136108</v>
+        <v>-1.803398966789246</v>
       </c>
       <c r="F110" t="n">
-        <v>2.213364362716675</v>
+        <v>3.528332233428955</v>
       </c>
       <c r="G110" t="n">
-        <v>-3.894362449645996</v>
+        <v>-4.219710826873779</v>
       </c>
       <c r="H110" t="n">
-        <v>-1.258014917373657</v>
+        <v>-2.264089345932007</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.1514352858066559</v>
+        <v>0.117841824889183</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09376266598701477</v>
+        <v>0.1015184298157692</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9636220335960388</v>
+        <v>1.802615404129028</v>
       </c>
       <c r="D111" t="n">
-        <v>-4.876782894134521</v>
+        <v>-4.397265911102295</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.1565360575914383</v>
+        <v>-1.11725652217865</v>
       </c>
       <c r="F111" t="n">
-        <v>1.415817260742188</v>
+        <v>2.435768604278564</v>
       </c>
       <c r="G111" t="n">
-        <v>-4.224012851715088</v>
+        <v>-4.024228572845459</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.483598530292511</v>
+        <v>-1.145591378211975</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1810549944639206</v>
+        <v>0.142186164855957</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1255935430526733</v>
+        <v>0.1235261261463165</v>
       </c>
       <c r="C112" t="n">
-        <v>0.05512502416968346</v>
+        <v>0.8109235167503357</v>
       </c>
       <c r="D112" t="n">
-        <v>-5.272331714630127</v>
+        <v>-5.06477165222168</v>
       </c>
       <c r="E112" t="n">
-        <v>0.371131420135498</v>
+        <v>-0.2912748157978058</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5116387605667114</v>
+        <v>1.535853624343872</v>
       </c>
       <c r="G112" t="n">
-        <v>-4.555774688720703</v>
+        <v>-4.485925197601318</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1701058745384216</v>
+        <v>-0.1799201667308807</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.2087429016828537</v>
+        <v>0.1676907390356064</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1563180536031723</v>
+        <v>0.1547929048538208</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.7941194772720337</v>
+        <v>-0.2280309498310089</v>
       </c>
       <c r="D113" t="n">
-        <v>-5.422573566436768</v>
+        <v>-5.773731708526611</v>
       </c>
       <c r="E113" t="n">
-        <v>0.8763895630836487</v>
+        <v>0.2460667639970779</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.3611123561859131</v>
+        <v>0.2573251724243164</v>
       </c>
       <c r="G113" t="n">
-        <v>-5.119128227233887</v>
+        <v>-4.821024894714355</v>
       </c>
       <c r="H113" t="n">
-        <v>0.6744022369384766</v>
+        <v>0.5327069163322449</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.2363076359033585</v>
+        <v>0.1961436718702316</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1933434009552002</v>
+        <v>0.1779831349849701</v>
       </c>
       <c r="C114" t="n">
-        <v>-1.639585494995117</v>
+        <v>-1.387089490890503</v>
       </c>
       <c r="D114" t="n">
-        <v>-5.806502819061279</v>
+        <v>-6.210018157958984</v>
       </c>
       <c r="E114" t="n">
-        <v>1.391350626945496</v>
+        <v>0.896871030330658</v>
       </c>
       <c r="F114" t="n">
-        <v>-1.412844061851501</v>
+        <v>-0.6909449696540833</v>
       </c>
       <c r="G114" t="n">
-        <v>-5.597709655761719</v>
+        <v>-5.389413356781006</v>
       </c>
       <c r="H114" t="n">
-        <v>1.095751404762268</v>
+        <v>1.248342871665955</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.2642903029918671</v>
+        <v>0.220430850982666</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2253390103578568</v>
+        <v>0.2054426819086075</v>
       </c>
       <c r="C115" t="n">
-        <v>-2.497870445251465</v>
+        <v>-2.376452922821045</v>
       </c>
       <c r="D115" t="n">
-        <v>-6.250467300415039</v>
+        <v>-6.794702529907227</v>
       </c>
       <c r="E115" t="n">
-        <v>1.815183997154236</v>
+        <v>1.645949602127075</v>
       </c>
       <c r="F115" t="n">
-        <v>-2.321702241897583</v>
+        <v>-1.81379222869873</v>
       </c>
       <c r="G115" t="n">
-        <v>-6.322650909423828</v>
+        <v>-6.092387199401855</v>
       </c>
       <c r="H115" t="n">
-        <v>1.454247355461121</v>
+        <v>1.86865234375</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.2962250709533691</v>
+        <v>0.2432423233985901</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2569504976272583</v>
+        <v>0.2232108414173126</v>
       </c>
       <c r="C116" t="n">
-        <v>-3.477375268936157</v>
+        <v>-3.305701732635498</v>
       </c>
       <c r="D116" t="n">
-        <v>-6.548463344573975</v>
+        <v>-7.386368751525879</v>
       </c>
       <c r="E116" t="n">
-        <v>2.171976804733276</v>
+        <v>2.210211277008057</v>
       </c>
       <c r="F116" t="n">
-        <v>-3.219648599624634</v>
+        <v>-2.540348768234253</v>
       </c>
       <c r="G116" t="n">
-        <v>-6.839344024658203</v>
+        <v>-6.321276664733887</v>
       </c>
       <c r="H116" t="n">
-        <v>1.829965233802795</v>
+        <v>2.601203918457031</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.317758172750473</v>
+        <v>0.2631634771823883</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2803886532783508</v>
+        <v>0.2493982911109924</v>
       </c>
       <c r="C117" t="n">
-        <v>-4.137839794158936</v>
+        <v>-4.117208957672119</v>
       </c>
       <c r="D117" t="n">
-        <v>-6.927906513214111</v>
+        <v>-7.705619812011719</v>
       </c>
       <c r="E117" t="n">
-        <v>2.799135446548462</v>
+        <v>2.953650236129761</v>
       </c>
       <c r="F117" t="n">
-        <v>-3.885425806045532</v>
+        <v>-3.611177921295166</v>
       </c>
       <c r="G117" t="n">
-        <v>-7.286881446838379</v>
+        <v>-7.035170078277588</v>
       </c>
       <c r="H117" t="n">
-        <v>2.195551156997681</v>
+        <v>3.337628364562988</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.3469052910804749</v>
+        <v>0.2890647351741791</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3126535713672638</v>
+        <v>0.2735505402088165</v>
       </c>
       <c r="C118" t="n">
-        <v>-5.031841278076172</v>
+        <v>-5.172324180603027</v>
       </c>
       <c r="D118" t="n">
-        <v>-7.165271282196045</v>
+        <v>-8.183629035949707</v>
       </c>
       <c r="E118" t="n">
-        <v>3.430158853530884</v>
+        <v>3.562329053878784</v>
       </c>
       <c r="F118" t="n">
-        <v>-4.801932811737061</v>
+        <v>-4.598787307739258</v>
       </c>
       <c r="G118" t="n">
-        <v>-7.732122898101807</v>
+        <v>-7.371527194976807</v>
       </c>
       <c r="H118" t="n">
-        <v>2.683540105819702</v>
+        <v>4.092415809631348</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.3612310290336609</v>
+        <v>0.314714252948761</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3363488018512726</v>
+        <v>0.2987547516822815</v>
       </c>
       <c r="C119" t="n">
-        <v>-5.471240997314453</v>
+        <v>-6.217180728912354</v>
       </c>
       <c r="D119" t="n">
-        <v>-7.767692565917969</v>
+        <v>-8.628559112548828</v>
       </c>
       <c r="E119" t="n">
-        <v>3.885815620422363</v>
+        <v>4.296220779418945</v>
       </c>
       <c r="F119" t="n">
-        <v>-5.475013256072998</v>
+        <v>-5.629409790039062</v>
       </c>
       <c r="G119" t="n">
-        <v>-7.892378330230713</v>
+        <v>-8.033288955688477</v>
       </c>
       <c r="H119" t="n">
-        <v>3.287978172302246</v>
+        <v>4.589982986450195</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.3948700726032257</v>
+        <v>0.3351596891880035</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3595412969589233</v>
+        <v>0.3166122138500214</v>
       </c>
       <c r="C120" t="n">
-        <v>-6.503018856048584</v>
+        <v>-7.050046920776367</v>
       </c>
       <c r="D120" t="n">
-        <v>-7.931168556213379</v>
+        <v>-9.330141067504883</v>
       </c>
       <c r="E120" t="n">
-        <v>4.255231380462646</v>
+        <v>4.840109825134277</v>
       </c>
       <c r="F120" t="n">
-        <v>-6.13381290435791</v>
+        <v>-6.359619617462158</v>
       </c>
       <c r="G120" t="n">
-        <v>-7.991939544677734</v>
+        <v>-8.788998603820801</v>
       </c>
       <c r="H120" t="n">
-        <v>3.757043838500977</v>
+        <v>5.123379707336426</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.4128760397434235</v>
+        <v>0.3593599200248718</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3836181163787842</v>
+        <v>0.3455028533935547</v>
       </c>
       <c r="C121" t="n">
-        <v>-7.055298328399658</v>
+        <v>-8.035869598388672</v>
       </c>
       <c r="D121" t="n">
-        <v>-7.964486598968506</v>
+        <v>-9.755084037780762</v>
       </c>
       <c r="E121" t="n">
-        <v>4.785097122192383</v>
+        <v>5.547548770904541</v>
       </c>
       <c r="F121" t="n">
-        <v>-6.817731380462646</v>
+        <v>-7.5409836769104</v>
       </c>
       <c r="G121" t="n">
-        <v>-8.016718864440918</v>
+        <v>-9.461461067199707</v>
       </c>
       <c r="H121" t="n">
-        <v>4.413204193115234</v>
+        <v>5.841278553009033</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4423222243785858</v>
+        <v>0.38428995013237</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4022558629512787</v>
+        <v>0.3675611615180969</v>
       </c>
       <c r="C122" t="n">
-        <v>-7.958472728729248</v>
+        <v>-9.051418304443359</v>
       </c>
       <c r="D122" t="n">
-        <v>-8.089966773986816</v>
+        <v>-10.44147682189941</v>
       </c>
       <c r="E122" t="n">
-        <v>5.335715770721436</v>
+        <v>6.276777744293213</v>
       </c>
       <c r="F122" t="n">
-        <v>-7.347149848937988</v>
+        <v>-8.44296932220459</v>
       </c>
       <c r="G122" t="n">
-        <v>-8.297732353210449</v>
+        <v>-10.05018711090088</v>
       </c>
       <c r="H122" t="n">
-        <v>4.978524208068848</v>
+        <v>6.345096588134766</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4514909386634827</v>
+        <v>0.399418443441391</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4283591210842133</v>
+        <v>0.3933272063732147</v>
       </c>
       <c r="C123" t="n">
-        <v>-8.239696502685547</v>
+        <v>-9.667692184448242</v>
       </c>
       <c r="D123" t="n">
-        <v>-7.761246204376221</v>
+        <v>-10.72807312011719</v>
       </c>
       <c r="E123" t="n">
-        <v>5.607095241546631</v>
+        <v>6.934416770935059</v>
       </c>
       <c r="F123" t="n">
-        <v>-8.088631629943848</v>
+        <v>-9.496567726135254</v>
       </c>
       <c r="G123" t="n">
-        <v>-8.267358779907227</v>
+        <v>-10.70468616485596</v>
       </c>
       <c r="H123" t="n">
-        <v>5.549530506134033</v>
+        <v>6.917036533355713</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4701142609119415</v>
+        <v>0.4272861182689667</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4447784125804901</v>
+        <v>0.4182331562042236</v>
       </c>
       <c r="C124" t="n">
-        <v>-8.810910224914551</v>
+        <v>-10.80291080474854</v>
       </c>
       <c r="D124" t="n">
-        <v>-7.636426448822021</v>
+        <v>-11.01719665527344</v>
       </c>
       <c r="E124" t="n">
-        <v>5.989763736724854</v>
+        <v>7.551716804504395</v>
       </c>
       <c r="F124" t="n">
-        <v>-8.555033683776855</v>
+        <v>-10.51499366760254</v>
       </c>
       <c r="G124" t="n">
-        <v>-7.929810047149658</v>
+        <v>-11.05731582641602</v>
       </c>
       <c r="H124" t="n">
-        <v>6.012439727783203</v>
+        <v>7.586052417755127</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.4735434651374817</v>
+        <v>0.4555588960647583</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4659982025623322</v>
+        <v>0.4343796968460083</v>
       </c>
       <c r="C125" t="n">
-        <v>-8.916090965270996</v>
+        <v>-11.95463180541992</v>
       </c>
       <c r="D125" t="n">
-        <v>-7.247905254364014</v>
+        <v>-10.77686882019043</v>
       </c>
       <c r="E125" t="n">
-        <v>6.09494161605835</v>
+        <v>7.971681594848633</v>
       </c>
       <c r="F125" t="n">
-        <v>-9.157796859741211</v>
+        <v>-11.17524242401123</v>
       </c>
       <c r="G125" t="n">
-        <v>-7.444570541381836</v>
+        <v>-11.15963172912598</v>
       </c>
       <c r="H125" t="n">
-        <v>6.33257532119751</v>
+        <v>8.197080612182617</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4920482337474823</v>
+        <v>0.4735628664493561</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4771862626075745</v>
+        <v>0.4626262187957764</v>
       </c>
       <c r="C126" t="n">
-        <v>-9.483670234680176</v>
+        <v>-12.68803977966309</v>
       </c>
       <c r="D126" t="n">
-        <v>-6.603699684143066</v>
+        <v>-10.98076820373535</v>
       </c>
       <c r="E126" t="n">
-        <v>5.922940731048584</v>
+        <v>8.346535682678223</v>
       </c>
       <c r="F126" t="n">
-        <v>-9.475601196289062</v>
+        <v>-12.3302698135376</v>
       </c>
       <c r="G126" t="n">
-        <v>-7.018515586853027</v>
+        <v>-11.10667991638184</v>
       </c>
       <c r="H126" t="n">
-        <v>6.515016555786133</v>
+        <v>8.583952903747559</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.5048520565032959</v>
+        <v>0.4942784011363983</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4997808039188385</v>
+        <v>0.484987199306488</v>
       </c>
       <c r="C127" t="n">
-        <v>-9.876389503479004</v>
+        <v>-13.53190994262695</v>
       </c>
       <c r="D127" t="n">
-        <v>-5.856454849243164</v>
+        <v>-10.13730335235596</v>
       </c>
       <c r="E127" t="n">
-        <v>5.227621078491211</v>
+        <v>8.401784896850586</v>
       </c>
       <c r="F127" t="n">
-        <v>-10.1174144744873</v>
+        <v>-13.24463081359863</v>
       </c>
       <c r="G127" t="n">
-        <v>-6.292253017425537</v>
+        <v>-10.52368068695068</v>
       </c>
       <c r="H127" t="n">
-        <v>6.248885631561279</v>
+        <v>8.663604736328125</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.5117535591125488</v>
+        <v>0.5093307495117188</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5062462091445923</v>
+        <v>0.4956377744674683</v>
       </c>
       <c r="C128" t="n">
-        <v>-10.08807373046875</v>
+        <v>-14.1450834274292</v>
       </c>
       <c r="D128" t="n">
-        <v>-4.929592609405518</v>
+        <v>-9.633017539978027</v>
       </c>
       <c r="E128" t="n">
-        <v>4.103983879089355</v>
+        <v>7.966590881347656</v>
       </c>
       <c r="F128" t="n">
-        <v>-10.30106925964355</v>
+        <v>-13.68014240264893</v>
       </c>
       <c r="G128" t="n">
-        <v>-5.342605113983154</v>
+        <v>-9.700384140014648</v>
       </c>
       <c r="H128" t="n">
-        <v>5.345078468322754</v>
+        <v>8.876818656921387</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.5197798609733582</v>
+        <v>0.5271735787391663</v>
       </c>
       <c r="B129" t="n">
-        <v>0.5136128664016724</v>
+        <v>0.5166233777999878</v>
       </c>
       <c r="C129" t="n">
-        <v>-10.33425712585449</v>
+        <v>-14.87192821502686</v>
       </c>
       <c r="D129" t="n">
-        <v>-3.501965761184692</v>
+        <v>-8.085613250732422</v>
       </c>
       <c r="E129" t="n">
-        <v>2.261488676071167</v>
+        <v>7.036743640899658</v>
       </c>
       <c r="F129" t="n">
-        <v>-10.51032543182373</v>
+        <v>-14.53826427459717</v>
       </c>
       <c r="G129" t="n">
-        <v>-3.577551603317261</v>
+        <v>-8.538795471191406</v>
       </c>
       <c r="H129" t="n">
-        <v>3.436702251434326</v>
+        <v>8.379167556762695</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.5237104296684265</v>
+        <v>0.5218088626861572</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5130905508995056</v>
+        <v>0.5268974304199219</v>
       </c>
       <c r="C130" t="n">
-        <v>-10.45481491088867</v>
+        <v>-14.6533899307251</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.948928117752075</v>
+        <v>-6.191969871520996</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.5099252462387085</v>
+        <v>5.047841548919678</v>
       </c>
       <c r="F130" t="n">
-        <v>-10.49548816680908</v>
+        <v>-14.95838165283203</v>
       </c>
       <c r="G130" t="n">
-        <v>-1.470454335212708</v>
+        <v>-6.854278087615967</v>
       </c>
       <c r="H130" t="n">
-        <v>0.2816370725631714</v>
+        <v>6.51115894317627</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.5038590431213379</v>
+        <v>0.5103563070297241</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4820974171161652</v>
+        <v>0.519865095615387</v>
       </c>
       <c r="C131" t="n">
-        <v>-9.845931053161621</v>
+        <v>-14.18685722351074</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5555859804153442</v>
+        <v>-3.494051694869995</v>
       </c>
       <c r="E131" t="n">
-        <v>-3.717382907867432</v>
+        <v>1.673610687255859</v>
       </c>
       <c r="F131" t="n">
-        <v>-9.615106582641602</v>
+        <v>-14.67082023620605</v>
       </c>
       <c r="G131" t="n">
-        <v>1.016808152198792</v>
+        <v>-4.03654146194458</v>
       </c>
       <c r="H131" t="n">
-        <v>-3.370901584625244</v>
+        <v>3.328489065170288</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.4784100353717804</v>
+        <v>0.4806878864765167</v>
       </c>
       <c r="B132" t="n">
-        <v>0.445101797580719</v>
+        <v>0.5012727379798889</v>
       </c>
       <c r="C132" t="n">
-        <v>-9.06535816192627</v>
+        <v>-12.97828578948975</v>
       </c>
       <c r="D132" t="n">
-        <v>2.878817319869995</v>
+        <v>-0.3577283620834351</v>
       </c>
       <c r="E132" t="n">
-        <v>-6.751989841461182</v>
+        <v>-2.23037314414978</v>
       </c>
       <c r="F132" t="n">
-        <v>-8.56421947479248</v>
+        <v>-13.91056156158447</v>
       </c>
       <c r="G132" t="n">
-        <v>4.280118942260742</v>
+        <v>-0.8703406453132629</v>
       </c>
       <c r="H132" t="n">
-        <v>-6.943019866943359</v>
+        <v>-1.375708222389221</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.4402690827846527</v>
+        <v>0.4562292993068695</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4022611975669861</v>
+        <v>0.4653480648994446</v>
       </c>
       <c r="C133" t="n">
-        <v>-7.89549732208252</v>
+        <v>-11.9819393157959</v>
       </c>
       <c r="D133" t="n">
-        <v>5.849826812744141</v>
+        <v>3.651485204696655</v>
       </c>
       <c r="E133" t="n">
-        <v>-8.926328659057617</v>
+        <v>-6.790607929229736</v>
       </c>
       <c r="F133" t="n">
-        <v>-7.347301959991455</v>
+        <v>-12.44157028198242</v>
       </c>
       <c r="G133" t="n">
-        <v>7.393051147460938</v>
+        <v>3.058069229125977</v>
       </c>
       <c r="H133" t="n">
-        <v>-9.119475364685059</v>
+        <v>-6.76224946975708</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.385209858417511</v>
+        <v>0.4116112291812897</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3506251871585846</v>
+        <v>0.4241496920585632</v>
       </c>
       <c r="C134" t="n">
-        <v>-6.206719875335693</v>
+        <v>-10.16437816619873</v>
       </c>
       <c r="D134" t="n">
-        <v>8.608534812927246</v>
+        <v>7.945377826690674</v>
       </c>
       <c r="E134" t="n">
-        <v>-9.638307571411133</v>
+        <v>-10.72720432281494</v>
       </c>
       <c r="F134" t="n">
-        <v>-5.880544185638428</v>
+        <v>-10.75692844390869</v>
       </c>
       <c r="G134" t="n">
-        <v>10.61245727539062</v>
+        <v>7.531247138977051</v>
       </c>
       <c r="H134" t="n">
-        <v>-9.144775390625</v>
+        <v>-11.55759906768799</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.3337681591510773</v>
+        <v>0.3457481265068054</v>
       </c>
       <c r="B135" t="n">
-        <v>0.2903595864772797</v>
+        <v>0.3718501925468445</v>
       </c>
       <c r="C135" t="n">
-        <v>-4.628897666931152</v>
+        <v>-7.481378555297852</v>
       </c>
       <c r="D135" t="n">
-        <v>11.75028419494629</v>
+        <v>12.27238941192627</v>
       </c>
       <c r="E135" t="n">
-        <v>-9.473896980285645</v>
+        <v>-13.20486927032471</v>
       </c>
       <c r="F135" t="n">
-        <v>-4.168657779693604</v>
+        <v>-8.618352890014648</v>
       </c>
       <c r="G135" t="n">
-        <v>13.34811782836914</v>
+        <v>12.13319873809814</v>
       </c>
       <c r="H135" t="n">
-        <v>-8.130785942077637</v>
+        <v>-13.88634490966797</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.267412930727005</v>
+        <v>0.2905850410461426</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7034708830653642</v>
+        <v>0.6260052722168121</v>
       </c>
       <c r="C136" t="n">
-        <v>-2.593648433685303</v>
+        <v>-5.234254360198975</v>
       </c>
       <c r="D136" t="n">
-        <v>14.1629056930542</v>
+        <v>16.17120170593262</v>
       </c>
       <c r="E136" t="n">
-        <v>-7.914262294769287</v>
+        <v>-13.09318923950195</v>
       </c>
       <c r="F136" t="n">
-        <v>-2.211654186248779</v>
+        <v>-6.316478729248047</v>
       </c>
       <c r="G136" t="n">
-        <v>15.33938312530518</v>
+        <v>15.90311717987061</v>
       </c>
       <c r="H136" t="n">
-        <v>-6.007612705230713</v>
+        <v>-14.32246971130371</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.7140838838201298</v>
+        <v>0.7050598970531121</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9095026580316199</v>
+        <v>0.8254216922708597</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.7360557913780212</v>
+        <v>-2.373081922531128</v>
       </c>
       <c r="D137" t="n">
-        <v>15.44668865203857</v>
+        <v>19.76892280578613</v>
       </c>
       <c r="E137" t="n">
-        <v>-5.668948173522949</v>
+        <v>-11.62088680267334</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.5154114365577698</v>
+        <v>-3.529488801956177</v>
       </c>
       <c r="G137" t="n">
-        <v>16.65693092346191</v>
+        <v>19.58033180236816</v>
       </c>
       <c r="H137" t="n">
-        <v>-3.727504730224609</v>
+        <v>-12.56459522247314</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.9193384492687262</v>
+        <v>0.9135654608326994</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9823990425928923</v>
+        <v>0.9408121564529497</v>
       </c>
       <c r="C138" t="n">
-        <v>1.02232038974762</v>
+        <v>0.2758751809597015</v>
       </c>
       <c r="D138" t="n">
-        <v>16.20345687866211</v>
+        <v>22.07734489440918</v>
       </c>
       <c r="E138" t="n">
-        <v>-3.701035976409912</v>
+        <v>-8.778329849243164</v>
       </c>
       <c r="F138" t="n">
-        <v>1.1511390209198</v>
+        <v>-0.7606418132781982</v>
       </c>
       <c r="G138" t="n">
-        <v>16.67534637451172</v>
+        <v>22.21177101135254</v>
       </c>
       <c r="H138" t="n">
-        <v>-1.7750403881073</v>
+        <v>-9.239583969116211</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9845267070432696</v>
+        <v>0.9844238123908773</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9985360170429072</v>
+        <v>0.9869949333639868</v>
       </c>
       <c r="C139" t="n">
-        <v>2.490030288696289</v>
+        <v>2.712316751480103</v>
       </c>
       <c r="D139" t="n">
-        <v>15.60375308990479</v>
+        <v>22.79784393310547</v>
       </c>
       <c r="E139" t="n">
-        <v>-1.525589227676392</v>
+        <v>-5.64487886428833</v>
       </c>
       <c r="F139" t="n">
-        <v>2.826990604400635</v>
+        <v>1.825022459030151</v>
       </c>
       <c r="G139" t="n">
-        <v>15.64416980743408</v>
+        <v>23.4355640411377</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.003485324094071984</v>
+        <v>-5.409947872161865</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9981423945093268</v>
+        <v>0.9986775949892051</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9999704154890984</v>
+        <v>0.998384856017553</v>
       </c>
       <c r="C140" t="n">
-        <v>3.65685772895813</v>
+        <v>4.770040988922119</v>
       </c>
       <c r="D140" t="n">
-        <v>14.24828243255615</v>
+        <v>23.30846786499023</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3040728867053986</v>
+        <v>-2.598134994506836</v>
       </c>
       <c r="F140" t="n">
-        <v>3.77497673034668</v>
+        <v>3.895408153533936</v>
       </c>
       <c r="G140" t="n">
-        <v>14.05166816711426</v>
+        <v>23.73772430419922</v>
       </c>
       <c r="H140" t="n">
-        <v>1.387894749641418</v>
+        <v>-2.334110736846924</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9998924313490888</v>
+        <v>0.9999960347436756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.00000089363518</v>
+        <v>0.9999371323044947</v>
       </c>
       <c r="C141" t="n">
-        <v>4.667101383209229</v>
+        <v>6.53828239440918</v>
       </c>
       <c r="D141" t="n">
-        <v>12.96014976501465</v>
+        <v>22.52243804931641</v>
       </c>
       <c r="E141" t="n">
-        <v>1.664345860481262</v>
+        <v>0.08459022641181946</v>
       </c>
       <c r="F141" t="n">
-        <v>4.533967018127441</v>
+        <v>5.743386745452881</v>
       </c>
       <c r="G141" t="n">
-        <v>11.78584575653076</v>
+        <v>22.65966415405273</v>
       </c>
       <c r="H141" t="n">
-        <v>2.454164981842041</v>
+        <v>0.206045925617218</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9999976016430743</v>
+        <v>1.000000226423144</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9999999456698279</v>
+        <v>1.00000266719817</v>
       </c>
       <c r="C142" t="n">
-        <v>5.246001720428467</v>
+        <v>7.83585262298584</v>
       </c>
       <c r="D142" t="n">
-        <v>9.770548820495605</v>
+        <v>19.89754676818848</v>
       </c>
       <c r="E142" t="n">
-        <v>2.830015420913696</v>
+        <v>2.019932746887207</v>
       </c>
       <c r="F142" t="n">
-        <v>4.994509696960449</v>
+        <v>7.50640869140625</v>
       </c>
       <c r="G142" t="n">
-        <v>9.434625625610352</v>
+        <v>20.98827362060547</v>
       </c>
       <c r="H142" t="n">
-        <v>2.835050821304321</v>
+        <v>2.259193181991577</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.00000000171746</v>
+        <v>0.9999999754836724</v>
       </c>
       <c r="B143" t="n">
-        <v>1.000000004010113</v>
+        <v>0.9999997421260056</v>
       </c>
       <c r="C143" t="n">
-        <v>5.620091438293457</v>
+        <v>8.94072151184082</v>
       </c>
       <c r="D143" t="n">
-        <v>7.18317174911499</v>
+        <v>16.92277908325195</v>
       </c>
       <c r="E143" t="n">
-        <v>3.394993305206299</v>
+        <v>3.348545789718628</v>
       </c>
       <c r="F143" t="n">
-        <v>5.19042444229126</v>
+        <v>8.682296752929688</v>
       </c>
       <c r="G143" t="n">
-        <v>6.442835807800293</v>
+        <v>18.02919387817383</v>
       </c>
       <c r="H143" t="n">
-        <v>3.289411783218384</v>
+        <v>3.339490175247192</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9999999999982886</v>
+        <v>1.000000002898308</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9999999995996806</v>
+        <v>1.000000032493264</v>
       </c>
       <c r="C144" t="n">
-        <v>5.624649047851562</v>
+        <v>9.155389785766602</v>
       </c>
       <c r="D144" t="n">
-        <v>4.050872802734375</v>
+        <v>13.08475589752197</v>
       </c>
       <c r="E144" t="n">
-        <v>3.47919750213623</v>
+        <v>3.929906368255615</v>
       </c>
       <c r="F144" t="n">
-        <v>5.582117080688477</v>
+        <v>9.317746162414551</v>
       </c>
       <c r="G144" t="n">
-        <v>3.21888256072998</v>
+        <v>14.11051177978516</v>
       </c>
       <c r="H144" t="n">
-        <v>2.868731737136841</v>
+        <v>4.032645225524902</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.000000000000029</v>
+        <v>0.9999999995682014</v>
       </c>
       <c r="B145" t="n">
-        <v>1.000000000045767</v>
+        <v>0.9999999950778576</v>
       </c>
       <c r="C145" t="n">
-        <v>5.881185531616211</v>
+        <v>9.819575309753418</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4882395267486572</v>
+        <v>8.528036117553711</v>
       </c>
       <c r="E145" t="n">
-        <v>3.183650255203247</v>
+        <v>3.822893619537354</v>
       </c>
       <c r="F145" t="n">
-        <v>5.800397396087646</v>
+        <v>9.869899749755859</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.01292689796537161</v>
+        <v>9.711719512939453</v>
       </c>
       <c r="H145" t="n">
-        <v>2.322095394134521</v>
+        <v>4.164866924285889</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.00000000006818</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9999999999944478</v>
+        <v>1.000000000766593</v>
       </c>
       <c r="C146" t="n">
-        <v>5.687942981719971</v>
+        <v>10.01206398010254</v>
       </c>
       <c r="D146" t="n">
-        <v>-2.8957839012146</v>
+        <v>4.025381088256836</v>
       </c>
       <c r="E146" t="n">
-        <v>2.651551485061646</v>
+        <v>3.328626155853271</v>
       </c>
       <c r="F146" t="n">
-        <v>5.905612468719482</v>
+        <v>9.962262153625488</v>
       </c>
       <c r="G146" t="n">
-        <v>-3.309252738952637</v>
+        <v>5.539113998413086</v>
       </c>
       <c r="H146" t="n">
-        <v>1.785335183143616</v>
+        <v>3.781949281692505</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>0.9999999999894291</v>
       </c>
       <c r="B147" t="n">
-        <v>1.000000000000643</v>
+        <v>0.9999999998714109</v>
       </c>
       <c r="C147" t="n">
-        <v>5.433427333831787</v>
+        <v>9.950413703918457</v>
       </c>
       <c r="D147" t="n">
-        <v>-6.026327133178711</v>
+        <v>-0.6718865036964417</v>
       </c>
       <c r="E147" t="n">
-        <v>1.889073371887207</v>
+        <v>2.421215772628784</v>
       </c>
       <c r="F147" t="n">
-        <v>5.823305606842041</v>
+        <v>10.2222728729248</v>
       </c>
       <c r="G147" t="n">
-        <v>-6.163882732391357</v>
+        <v>0.751321017742157</v>
       </c>
       <c r="H147" t="n">
-        <v>1.433149695396423</v>
+        <v>3.035320043563843</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1</v>
+        <v>1.000000000001449</v>
       </c>
       <c r="B148" t="n">
-        <v>0.9999999999999202</v>
+        <v>1.000000000019612</v>
       </c>
       <c r="C148" t="n">
-        <v>5.741241455078125</v>
+        <v>9.562932968139648</v>
       </c>
       <c r="D148" t="n">
-        <v>-8.090792655944824</v>
+        <v>-4.784778118133545</v>
       </c>
       <c r="E148" t="n">
-        <v>1.236394762992859</v>
+        <v>1.499119400978088</v>
       </c>
       <c r="F148" t="n">
-        <v>5.946698665618896</v>
+        <v>9.892388343811035</v>
       </c>
       <c r="G148" t="n">
-        <v>-8.101696014404297</v>
+        <v>-3.489782571792603</v>
       </c>
       <c r="H148" t="n">
-        <v>1.129172444343567</v>
+        <v>2.378503322601318</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>0.9999999999997908</v>
       </c>
       <c r="B149" t="n">
-        <v>1.00000000000001</v>
+        <v>0.9999999999975772</v>
       </c>
       <c r="C149" t="n">
-        <v>5.94566822052002</v>
+        <v>9.719722747802734</v>
       </c>
       <c r="D149" t="n">
-        <v>-9.606391906738281</v>
+        <v>-8.317832946777344</v>
       </c>
       <c r="E149" t="n">
-        <v>0.8967373967170715</v>
+        <v>0.8316131234169006</v>
       </c>
       <c r="F149" t="n">
-        <v>6.031260013580322</v>
+        <v>9.264318466186523</v>
       </c>
       <c r="G149" t="n">
-        <v>-9.439282417297363</v>
+        <v>-7.047075748443604</v>
       </c>
       <c r="H149" t="n">
-        <v>1.352270722389221</v>
+        <v>1.887999653816223</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>1.000000000000026</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.000000000000256</v>
       </c>
       <c r="C150" t="n">
-        <v>5.975793838500977</v>
+        <v>9.273539543151855</v>
       </c>
       <c r="D150" t="n">
-        <v>-9.636533737182617</v>
+        <v>-10.58163642883301</v>
       </c>
       <c r="E150" t="n">
-        <v>0.7637735605239868</v>
+        <v>0.3379033505916595</v>
       </c>
       <c r="F150" t="n">
-        <v>6.158688545227051</v>
+        <v>8.87657642364502</v>
       </c>
       <c r="G150" t="n">
-        <v>-9.493773460388184</v>
+        <v>-9.795683860778809</v>
       </c>
       <c r="H150" t="n">
-        <v>1.320604085922241</v>
+        <v>1.662045121192932</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>0.9999999999999967</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0.9999999999999764</v>
       </c>
       <c r="C151" t="n">
-        <v>6.233050346374512</v>
+        <v>9.370197296142578</v>
       </c>
       <c r="D151" t="n">
-        <v>-9.745170593261719</v>
+        <v>-11.90117359161377</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5704383254051208</v>
+        <v>-0.03263963386416435</v>
       </c>
       <c r="F151" t="n">
-        <v>5.855971813201904</v>
+        <v>8.593241691589355</v>
       </c>
       <c r="G151" t="n">
-        <v>-9.231502532958984</v>
+        <v>-11.7888240814209</v>
       </c>
       <c r="H151" t="n">
-        <v>0.8269922733306885</v>
+        <v>1.358682513237</v>
       </c>
     </row>
     <row r="152">
@@ -4380,25 +4380,25 @@
         <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C152" t="n">
-        <v>5.858087539672852</v>
+        <v>9.078060150146484</v>
       </c>
       <c r="D152" t="n">
-        <v>-9.209981918334961</v>
+        <v>-12.5778865814209</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.07281754910945892</v>
+        <v>-0.7529404163360596</v>
       </c>
       <c r="F152" t="n">
-        <v>5.932731151580811</v>
+        <v>8.071309089660645</v>
       </c>
       <c r="G152" t="n">
-        <v>-8.676129341125488</v>
+        <v>-12.08878803253174</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.1063318848609924</v>
+        <v>0.6139352321624756</v>
       </c>
     </row>
     <row r="153">
@@ -4406,25 +4406,25 @@
         <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C153" t="n">
-        <v>5.667642593383789</v>
+        <v>8.488134384155273</v>
       </c>
       <c r="D153" t="n">
-        <v>-8.205580711364746</v>
+        <v>-11.93550491333008</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.9982044696807861</v>
+        <v>-1.475775361061096</v>
       </c>
       <c r="F153" t="n">
-        <v>5.538843631744385</v>
+        <v>7.802159309387207</v>
       </c>
       <c r="G153" t="n">
-        <v>-7.744855403900146</v>
+        <v>-11.98715877532959</v>
       </c>
       <c r="H153" t="n">
-        <v>-1.370720863342285</v>
+        <v>-0.6345718502998352</v>
       </c>
     </row>
     <row r="154">
@@ -4435,1296 +4435,1296 @@
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>5.267926216125488</v>
+        <v>7.605435371398926</v>
       </c>
       <c r="D154" t="n">
-        <v>-6.922668933868408</v>
+        <v>-10.72525691986084</v>
       </c>
       <c r="E154" t="n">
-        <v>-1.938117384910583</v>
+        <v>-2.658314943313599</v>
       </c>
       <c r="F154" t="n">
-        <v>5.279171943664551</v>
+        <v>7.463617324829102</v>
       </c>
       <c r="G154" t="n">
-        <v>-6.641496181488037</v>
+        <v>-11.35295963287354</v>
       </c>
       <c r="H154" t="n">
-        <v>-2.654557466506958</v>
+        <v>-2.075960636138916</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.006235130131244659</v>
+        <v>-0.03073332831263542</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.0593419261276722</v>
+        <v>-0.02634447440505028</v>
       </c>
       <c r="C155" t="n">
-        <v>5.417206287384033</v>
+        <v>7.854973793029785</v>
       </c>
       <c r="D155" t="n">
-        <v>-7.949653148651123</v>
+        <v>-7.633860111236572</v>
       </c>
       <c r="E155" t="n">
-        <v>-2.384914875030518</v>
+        <v>-3.375028133392334</v>
       </c>
       <c r="F155" t="n">
-        <v>5.764861583709717</v>
+        <v>7.664203643798828</v>
       </c>
       <c r="G155" t="n">
-        <v>-7.990900039672852</v>
+        <v>-8.013916015625</v>
       </c>
       <c r="H155" t="n">
-        <v>-2.395826578140259</v>
+        <v>-3.596924304962158</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.02331992611289024</v>
+        <v>-0.03657863289117813</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.05797003582119942</v>
+        <v>-0.03250846639275551</v>
       </c>
       <c r="C156" t="n">
-        <v>4.893180847167969</v>
+        <v>8.093088150024414</v>
       </c>
       <c r="D156" t="n">
-        <v>-8.024354934692383</v>
+        <v>-6.7064208984375</v>
       </c>
       <c r="E156" t="n">
-        <v>-3.208788156509399</v>
+        <v>-4.338827610015869</v>
       </c>
       <c r="F156" t="n">
-        <v>5.725892066955566</v>
+        <v>7.916254997253418</v>
       </c>
       <c r="G156" t="n">
-        <v>-8.085528373718262</v>
+        <v>-7.259829044342041</v>
       </c>
       <c r="H156" t="n">
-        <v>-3.403424024581909</v>
+        <v>-4.738523006439209</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.04095003753900528</v>
+        <v>-0.01748365722596645</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.04875685647130013</v>
+        <v>-0.02660316787660122</v>
       </c>
       <c r="C157" t="n">
-        <v>4.352429389953613</v>
+        <v>7.315235137939453</v>
       </c>
       <c r="D157" t="n">
-        <v>-7.07464075088501</v>
+        <v>-5.472574234008789</v>
       </c>
       <c r="E157" t="n">
-        <v>-3.568111181259155</v>
+        <v>-4.420295238494873</v>
       </c>
       <c r="F157" t="n">
-        <v>5.464185237884521</v>
+        <v>7.674781799316406</v>
       </c>
       <c r="G157" t="n">
-        <v>-7.120258808135986</v>
+        <v>-6.206228733062744</v>
       </c>
       <c r="H157" t="n">
-        <v>-4.065564632415771</v>
+        <v>-5.487027645111084</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.05614326149225235</v>
+        <v>-0.004746609833091497</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.0224339384585619</v>
+        <v>-0.001597280148416758</v>
       </c>
       <c r="C158" t="n">
-        <v>3.886422395706177</v>
+        <v>6.796378612518311</v>
       </c>
       <c r="D158" t="n">
-        <v>-6.142878532409668</v>
+        <v>-4.641602516174316</v>
       </c>
       <c r="E158" t="n">
-        <v>-3.298851728439331</v>
+        <v>-4.33701229095459</v>
       </c>
       <c r="F158" t="n">
-        <v>4.716464042663574</v>
+        <v>6.652267456054688</v>
       </c>
       <c r="G158" t="n">
-        <v>-5.877879619598389</v>
+        <v>-5.190112113952637</v>
       </c>
       <c r="H158" t="n">
-        <v>-3.987091541290283</v>
+        <v>-5.401025772094727</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.07604753226041794</v>
+        <v>0.0330103375017643</v>
       </c>
       <c r="B159" t="n">
-        <v>0.003024705685675144</v>
+        <v>0.02474856004118919</v>
       </c>
       <c r="C159" t="n">
-        <v>3.275917768478394</v>
+        <v>5.25831127166748</v>
       </c>
       <c r="D159" t="n">
-        <v>-5.43367862701416</v>
+        <v>-4.228796005249023</v>
       </c>
       <c r="E159" t="n">
-        <v>-2.68605899810791</v>
+        <v>-3.629912853240967</v>
       </c>
       <c r="F159" t="n">
-        <v>3.993293285369873</v>
+        <v>5.574961185455322</v>
       </c>
       <c r="G159" t="n">
-        <v>-4.857001304626465</v>
+        <v>-4.488213539123535</v>
       </c>
       <c r="H159" t="n">
-        <v>-3.354276895523071</v>
+        <v>-4.742541790008545</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.1021913886070251</v>
+        <v>0.055185716599226</v>
       </c>
       <c r="B160" t="n">
-        <v>0.03078931570053101</v>
+        <v>0.04621297866106033</v>
       </c>
       <c r="C160" t="n">
-        <v>2.474032640457153</v>
+        <v>4.354974746704102</v>
       </c>
       <c r="D160" t="n">
-        <v>-4.907373428344727</v>
+        <v>-4.076912403106689</v>
       </c>
       <c r="E160" t="n">
-        <v>-1.824544310569763</v>
+        <v>-2.817338466644287</v>
       </c>
       <c r="F160" t="n">
-        <v>3.204619884490967</v>
+        <v>4.697260856628418</v>
       </c>
       <c r="G160" t="n">
-        <v>-4.437797069549561</v>
+        <v>-4.113660335540771</v>
       </c>
       <c r="H160" t="n">
-        <v>-2.47684907913208</v>
+        <v>-3.669376373291016</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.1249115541577339</v>
+        <v>0.08499038219451904</v>
       </c>
       <c r="B161" t="n">
-        <v>0.06022610515356064</v>
+        <v>0.07433720678091049</v>
       </c>
       <c r="C161" t="n">
-        <v>1.777158737182617</v>
+        <v>3.140851736068726</v>
       </c>
       <c r="D161" t="n">
-        <v>-5.234360694885254</v>
+        <v>-4.394741535186768</v>
       </c>
       <c r="E161" t="n">
-        <v>-1.09726345539093</v>
+        <v>-1.936675429344177</v>
       </c>
       <c r="F161" t="n">
-        <v>2.368447065353394</v>
+        <v>3.547234535217285</v>
       </c>
       <c r="G161" t="n">
-        <v>-4.253513336181641</v>
+        <v>-4.419087409973145</v>
       </c>
       <c r="H161" t="n">
-        <v>-1.465757846832275</v>
+        <v>-2.385584115982056</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.153920516371727</v>
+        <v>0.1167361363768578</v>
       </c>
       <c r="B162" t="n">
-        <v>0.08958586305379868</v>
+        <v>0.1003711000084877</v>
       </c>
       <c r="C162" t="n">
-        <v>0.8873949646949768</v>
+        <v>1.84765625</v>
       </c>
       <c r="D162" t="n">
-        <v>-5.289389133453369</v>
+        <v>-4.608540058135986</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.3694334328174591</v>
+        <v>-1.245464444160461</v>
       </c>
       <c r="F162" t="n">
-        <v>1.534462451934814</v>
+        <v>2.482684135437012</v>
       </c>
       <c r="G162" t="n">
-        <v>-4.538975715637207</v>
+        <v>-4.264635562896729</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.6688194274902344</v>
+        <v>-1.253138542175293</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.183663472533226</v>
+        <v>0.1408132761716843</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1218644231557846</v>
+        <v>0.1232843399047852</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.02488246932625771</v>
+        <v>0.866849958896637</v>
       </c>
       <c r="D163" t="n">
-        <v>-5.630703926086426</v>
+        <v>-5.251769065856934</v>
       </c>
       <c r="E163" t="n">
-        <v>0.1816529333591461</v>
+        <v>-0.3852022588253021</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6175671815872192</v>
+        <v>1.545740365982056</v>
       </c>
       <c r="G163" t="n">
-        <v>-4.818007469177246</v>
+        <v>-4.677426338195801</v>
       </c>
       <c r="H163" t="n">
-        <v>0.02248355560004711</v>
+        <v>-0.2685709595680237</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.2110847979784012</v>
+        <v>0.1674915850162506</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1538815051317215</v>
+        <v>0.1546041816473007</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.8659501075744629</v>
+        <v>-0.2199185788631439</v>
       </c>
       <c r="D164" t="n">
-        <v>-5.775999546051025</v>
+        <v>-5.918422698974609</v>
       </c>
       <c r="E164" t="n">
-        <v>0.7115681171417236</v>
+        <v>0.1738876700401306</v>
       </c>
       <c r="F164" t="n">
-        <v>-0.2919004559516907</v>
+        <v>0.2650418281555176</v>
       </c>
       <c r="G164" t="n">
-        <v>-5.346336841583252</v>
+        <v>-4.999724388122559</v>
       </c>
       <c r="H164" t="n">
-        <v>0.5638207793235779</v>
+        <v>0.4559321105480194</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.2386577129364014</v>
+        <v>0.1958299428224564</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1918135583400726</v>
+        <v>0.1782099306583405</v>
       </c>
       <c r="C165" t="n">
-        <v>-1.71166729927063</v>
+        <v>-1.374309420585632</v>
       </c>
       <c r="D165" t="n">
-        <v>-6.115647315979004</v>
+        <v>-6.294435977935791</v>
       </c>
       <c r="E165" t="n">
-        <v>1.238247394561768</v>
+        <v>0.8453859090805054</v>
       </c>
       <c r="F165" t="n">
-        <v>-1.369387745857239</v>
+        <v>-0.7002190351486206</v>
       </c>
       <c r="G165" t="n">
-        <v>-5.802302360534668</v>
+        <v>-5.537745475769043</v>
       </c>
       <c r="H165" t="n">
-        <v>1.012935400009155</v>
+        <v>1.192765593528748</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.2669093906879425</v>
+        <v>0.2202868610620499</v>
       </c>
       <c r="B166" t="n">
-        <v>0.2247469127178192</v>
+        <v>0.2058940082788467</v>
       </c>
       <c r="C166" t="n">
-        <v>-2.578203678131104</v>
+        <v>-2.370587587356567</v>
       </c>
       <c r="D166" t="n">
-        <v>-6.565240859985352</v>
+        <v>-6.919735431671143</v>
       </c>
       <c r="E166" t="n">
-        <v>1.715910792350769</v>
+        <v>1.607662200927734</v>
       </c>
       <c r="F166" t="n">
-        <v>-2.304882764816284</v>
+        <v>-1.832248091697693</v>
       </c>
       <c r="G166" t="n">
-        <v>-6.504716873168945</v>
+        <v>-6.230479717254639</v>
       </c>
       <c r="H166" t="n">
-        <v>1.411955237388611</v>
+        <v>1.841551780700684</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.2990797162055969</v>
+        <v>0.2439740747213364</v>
       </c>
       <c r="B167" t="n">
-        <v>0.2570237219333649</v>
+        <v>0.2241655290126801</v>
       </c>
       <c r="C167" t="n">
-        <v>-3.564932823181152</v>
+        <v>-3.335508823394775</v>
       </c>
       <c r="D167" t="n">
-        <v>-6.806583881378174</v>
+        <v>-7.469650268554688</v>
       </c>
       <c r="E167" t="n">
-        <v>2.162447929382324</v>
+        <v>2.174230575561523</v>
       </c>
       <c r="F167" t="n">
-        <v>-3.221728086471558</v>
+        <v>-2.579386472702026</v>
       </c>
       <c r="G167" t="n">
-        <v>-6.988391876220703</v>
+        <v>-6.478937149047852</v>
       </c>
       <c r="H167" t="n">
-        <v>1.828437685966492</v>
+        <v>2.568862438201904</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.321179986000061</v>
+        <v>0.2644363045692444</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2808506786823273</v>
+        <v>0.250661164522171</v>
       </c>
       <c r="C168" t="n">
-        <v>-4.242793083190918</v>
+        <v>-4.169058322906494</v>
       </c>
       <c r="D168" t="n">
-        <v>-7.132997035980225</v>
+        <v>-7.819087505340576</v>
       </c>
       <c r="E168" t="n">
-        <v>2.893775224685669</v>
+        <v>2.927891731262207</v>
       </c>
       <c r="F168" t="n">
-        <v>-3.898549795150757</v>
+        <v>-3.662819147109985</v>
       </c>
       <c r="G168" t="n">
-        <v>-7.414260387420654</v>
+        <v>-7.193349361419678</v>
       </c>
       <c r="H168" t="n">
-        <v>2.251545190811157</v>
+        <v>3.337225437164307</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.3512089252471924</v>
+        <v>0.2912706434726715</v>
       </c>
       <c r="B169" t="n">
-        <v>0.3140474855899811</v>
+        <v>0.2749178409576416</v>
       </c>
       <c r="C169" t="n">
-        <v>-5.16384220123291</v>
+        <v>-5.262182712554932</v>
       </c>
       <c r="D169" t="n">
-        <v>-7.326784610748291</v>
+        <v>-8.316232681274414</v>
       </c>
       <c r="E169" t="n">
-        <v>3.620453357696533</v>
+        <v>3.537349224090576</v>
       </c>
       <c r="F169" t="n">
-        <v>-4.84152889251709</v>
+        <v>-4.654696941375732</v>
       </c>
       <c r="G169" t="n">
-        <v>-7.826422214508057</v>
+        <v>-7.485575675964355</v>
       </c>
       <c r="H169" t="n">
-        <v>2.801551103591919</v>
+        <v>4.105413436889648</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.3667721450328827</v>
+        <v>0.3168313801288605</v>
       </c>
       <c r="B170" t="n">
-        <v>0.3382907807826996</v>
+        <v>0.3002146184444427</v>
       </c>
       <c r="C170" t="n">
-        <v>-5.641198635101318</v>
+        <v>-6.303424835205078</v>
       </c>
       <c r="D170" t="n">
-        <v>-7.849879741668701</v>
+        <v>-8.726284980773926</v>
       </c>
       <c r="E170" t="n">
-        <v>4.152070045471191</v>
+        <v>4.305476188659668</v>
       </c>
       <c r="F170" t="n">
-        <v>-5.530175685882568</v>
+        <v>-5.689107418060303</v>
       </c>
       <c r="G170" t="n">
-        <v>-7.954300403594971</v>
+        <v>-8.132925987243652</v>
       </c>
       <c r="H170" t="n">
-        <v>3.452089309692383</v>
+        <v>4.629395961761475</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.4000166058540344</v>
+        <v>0.3375343382358551</v>
       </c>
       <c r="B171" t="n">
-        <v>0.3622832298278809</v>
+        <v>0.3191511332988739</v>
       </c>
       <c r="C171" t="n">
-        <v>-6.660872936248779</v>
+        <v>-7.146781921386719</v>
       </c>
       <c r="D171" t="n">
-        <v>-7.998599529266357</v>
+        <v>-9.450675964355469</v>
       </c>
       <c r="E171" t="n">
-        <v>4.548065185546875</v>
+        <v>4.889951705932617</v>
       </c>
       <c r="F171" t="n">
-        <v>-6.211698532104492</v>
+        <v>-6.463436603546143</v>
       </c>
       <c r="G171" t="n">
-        <v>-8.073140144348145</v>
+        <v>-8.890312194824219</v>
       </c>
       <c r="H171" t="n">
-        <v>3.982757091522217</v>
+        <v>5.159873008728027</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.4191765487194061</v>
+        <v>0.3625769317150116</v>
       </c>
       <c r="B172" t="n">
-        <v>0.3880335986614227</v>
+        <v>0.3473965525627136</v>
       </c>
       <c r="C172" t="n">
-        <v>-7.248547554016113</v>
+        <v>-8.16691780090332</v>
       </c>
       <c r="D172" t="n">
-        <v>-8.01120662689209</v>
+        <v>-9.90621280670166</v>
       </c>
       <c r="E172" t="n">
-        <v>5.090065002441406</v>
+        <v>5.599095821380615</v>
       </c>
       <c r="F172" t="n">
-        <v>-6.943157196044922</v>
+        <v>-7.618420124053955</v>
       </c>
       <c r="G172" t="n">
-        <v>-8.112590789794922</v>
+        <v>-9.544737815856934</v>
       </c>
       <c r="H172" t="n">
-        <v>4.681647300720215</v>
+        <v>5.881931304931641</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.4489578902721405</v>
+        <v>0.3875274658203125</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4087307751178741</v>
+        <v>0.369051992893219</v>
       </c>
       <c r="C173" t="n">
-        <v>-8.162002563476562</v>
+        <v>-9.18330192565918</v>
       </c>
       <c r="D173" t="n">
-        <v>-8.159003257751465</v>
+        <v>-10.55774688720703</v>
       </c>
       <c r="E173" t="n">
-        <v>5.647636890411377</v>
+        <v>6.364418983459473</v>
       </c>
       <c r="F173" t="n">
-        <v>-7.531074047088623</v>
+        <v>-8.50393009185791</v>
       </c>
       <c r="G173" t="n">
-        <v>-8.402908325195312</v>
+        <v>-10.1544942855835</v>
       </c>
       <c r="H173" t="n">
-        <v>5.286589622497559</v>
+        <v>6.407753467559814</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.4585473239421844</v>
+        <v>0.4029921889305115</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4361963272094727</v>
+        <v>0.3961117565631866</v>
       </c>
       <c r="C174" t="n">
-        <v>-8.45612907409668</v>
+        <v>-9.813274383544922</v>
       </c>
       <c r="D174" t="n">
-        <v>-7.822638034820557</v>
+        <v>-10.84225559234619</v>
       </c>
       <c r="E174" t="n">
-        <v>5.894842147827148</v>
+        <v>7.01811695098877</v>
       </c>
       <c r="F174" t="n">
-        <v>-8.311253547668457</v>
+        <v>-9.610430717468262</v>
       </c>
       <c r="G174" t="n">
-        <v>-8.400896072387695</v>
+        <v>-10.77426528930664</v>
       </c>
       <c r="H174" t="n">
-        <v>5.897647857666016</v>
+        <v>6.954875469207764</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.4777582585811615</v>
+        <v>0.4315403401851654</v>
       </c>
       <c r="B175" t="n">
-        <v>0.4543139040470123</v>
+        <v>0.42168989777565</v>
       </c>
       <c r="C175" t="n">
-        <v>-9.045367240905762</v>
+        <v>-10.97620964050293</v>
       </c>
       <c r="D175" t="n">
-        <v>-7.676513671875</v>
+        <v>-11.11880397796631</v>
       </c>
       <c r="E175" t="n">
-        <v>6.234752655029297</v>
+        <v>7.679430961608887</v>
       </c>
       <c r="F175" t="n">
-        <v>-8.825895309448242</v>
+        <v>-10.65634441375732</v>
       </c>
       <c r="G175" t="n">
-        <v>-8.091120719909668</v>
+        <v>-11.1403341293335</v>
       </c>
       <c r="H175" t="n">
-        <v>6.367485046386719</v>
+        <v>7.616019248962402</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.4826555252075195</v>
+        <v>0.459306001663208</v>
       </c>
       <c r="B176" t="n">
-        <v>0.4770397841930389</v>
+        <v>0.4388654828071594</v>
       </c>
       <c r="C176" t="n">
-        <v>-9.195577621459961</v>
+        <v>-12.10727119445801</v>
       </c>
       <c r="D176" t="n">
-        <v>-7.299508094787598</v>
+        <v>-10.90833282470703</v>
       </c>
       <c r="E176" t="n">
-        <v>6.276340007781982</v>
+        <v>8.07265567779541</v>
       </c>
       <c r="F176" t="n">
-        <v>-9.471440315246582</v>
+        <v>-11.35867023468018</v>
       </c>
       <c r="G176" t="n">
-        <v>-7.652966499328613</v>
+        <v>-11.25491428375244</v>
       </c>
       <c r="H176" t="n">
-        <v>6.708457946777344</v>
+        <v>8.201963424682617</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.5006935596466064</v>
+        <v>0.477575272321701</v>
       </c>
       <c r="B177" t="n">
-        <v>0.4900387227535248</v>
+        <v>0.4672231376171112</v>
       </c>
       <c r="C177" t="n">
-        <v>-9.74884033203125</v>
+        <v>-12.85149097442627</v>
       </c>
       <c r="D177" t="n">
-        <v>-6.633659362792969</v>
+        <v>-11.10499858856201</v>
       </c>
       <c r="E177" t="n">
-        <v>6.010313987731934</v>
+        <v>8.439691543579102</v>
       </c>
       <c r="F177" t="n">
-        <v>-9.84068489074707</v>
+        <v>-12.51823997497559</v>
       </c>
       <c r="G177" t="n">
-        <v>-7.194375514984131</v>
+        <v>-11.19676494598389</v>
       </c>
       <c r="H177" t="n">
-        <v>6.848358631134033</v>
+        <v>8.548609733581543</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.5141093134880066</v>
+        <v>0.4976536631584167</v>
       </c>
       <c r="B178" t="n">
-        <v>0.5147781372070312</v>
+        <v>0.4902653396129608</v>
       </c>
       <c r="C178" t="n">
-        <v>-10.16032886505127</v>
+        <v>-13.66940402984619</v>
       </c>
       <c r="D178" t="n">
-        <v>-5.883076190948486</v>
+        <v>-10.22967338562012</v>
       </c>
       <c r="E178" t="n">
-        <v>5.221575260162354</v>
+        <v>8.457486152648926</v>
       </c>
       <c r="F178" t="n">
-        <v>-10.54342460632324</v>
+        <v>-13.46045970916748</v>
       </c>
       <c r="G178" t="n">
-        <v>-6.527542114257812</v>
+        <v>-10.61958789825439</v>
       </c>
       <c r="H178" t="n">
-        <v>6.578437328338623</v>
+        <v>8.59383487701416</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.5192991495132446</v>
+        <v>0.5125846266746521</v>
       </c>
       <c r="B179" t="n">
-        <v>0.521060049533844</v>
+        <v>0.499749630689621</v>
       </c>
       <c r="C179" t="n">
-        <v>-10.3195104598999</v>
+        <v>-14.27763366699219</v>
       </c>
       <c r="D179" t="n">
-        <v>-4.900362014770508</v>
+        <v>-9.648440361022949</v>
       </c>
       <c r="E179" t="n">
-        <v>4.009074211120605</v>
+        <v>7.989827156066895</v>
       </c>
       <c r="F179" t="n">
-        <v>-10.72186756134033</v>
+        <v>-13.84828186035156</v>
       </c>
       <c r="G179" t="n">
-        <v>-5.546882629394531</v>
+        <v>-9.716646194458008</v>
       </c>
       <c r="H179" t="n">
-        <v>5.658411026000977</v>
+        <v>8.713395118713379</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.5275198221206665</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="B180" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.5206518769264221</v>
       </c>
       <c r="C180" t="n">
-        <v>-10.57165718078613</v>
+        <v>-14.98706340789795</v>
       </c>
       <c r="D180" t="n">
-        <v>-3.412590980529785</v>
+        <v>-8.06586742401123</v>
       </c>
       <c r="E180" t="n">
-        <v>2.144846439361572</v>
+        <v>6.998298168182373</v>
       </c>
       <c r="F180" t="n">
-        <v>-10.97581195831299</v>
+        <v>-14.70299339294434</v>
       </c>
       <c r="G180" t="n">
-        <v>-3.75746488571167</v>
+        <v>-8.557659149169922</v>
       </c>
       <c r="H180" t="n">
-        <v>3.724225997924805</v>
+        <v>8.153530120849609</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
+        <v>0.5241918563842773</v>
+      </c>
+      <c r="B181" t="n">
         <v>0.5299999713897705</v>
       </c>
-      <c r="B181" t="n">
-        <v>0.5290165543556213</v>
-      </c>
       <c r="C181" t="n">
-        <v>-10.64772701263428</v>
+        <v>-14.75046348571777</v>
       </c>
       <c r="D181" t="n">
-        <v>-1.742196202278137</v>
+        <v>-6.152544975280762</v>
       </c>
       <c r="E181" t="n">
-        <v>-0.6496742963790894</v>
+        <v>4.929664134979248</v>
       </c>
       <c r="F181" t="n">
-        <v>-10.94787788391113</v>
+        <v>-15.08524513244629</v>
       </c>
       <c r="G181" t="n">
-        <v>-1.605115175247192</v>
+        <v>-6.786957263946533</v>
       </c>
       <c r="H181" t="n">
-        <v>0.5833414196968079</v>
+        <v>6.171991348266602</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.5084039568901062</v>
+        <v>0.5124390125274658</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4954864084720612</v>
+        <v>0.5216000080108643</v>
       </c>
       <c r="C182" t="n">
-        <v>-9.985334396362305</v>
+        <v>-14.27170085906982</v>
       </c>
       <c r="D182" t="n">
-        <v>0.8630568981170654</v>
+        <v>-3.388930320739746</v>
       </c>
       <c r="E182" t="n">
-        <v>-3.838619470596313</v>
+        <v>1.485697388648987</v>
       </c>
       <c r="F182" t="n">
-        <v>-9.995429992675781</v>
+        <v>-14.74176406860352</v>
       </c>
       <c r="G182" t="n">
-        <v>1.004339814186096</v>
+        <v>-3.906887054443359</v>
       </c>
       <c r="H182" t="n">
-        <v>-3.156805753707886</v>
+        <v>2.975856304168701</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.4806050360202789</v>
+        <v>0.4823757410049438</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4579666554927826</v>
+        <v>0.5031730532646179</v>
       </c>
       <c r="C183" t="n">
-        <v>-9.132684707641602</v>
+        <v>-13.04704189300537</v>
       </c>
       <c r="D183" t="n">
-        <v>3.343573808670044</v>
+        <v>-0.1871850490570068</v>
       </c>
       <c r="E183" t="n">
-        <v>-6.822750091552734</v>
+        <v>-2.470463037490845</v>
       </c>
       <c r="F183" t="n">
-        <v>-8.929654121398926</v>
+        <v>-13.98826885223389</v>
       </c>
       <c r="G183" t="n">
-        <v>4.395020961761475</v>
+        <v>-0.7023031115531921</v>
       </c>
       <c r="H183" t="n">
-        <v>-6.896324157714844</v>
+        <v>-1.679131507873535</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.4395797252655029</v>
+        <v>0.4568639099597931</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4127070605754852</v>
+        <v>0.4655188918113708</v>
       </c>
       <c r="C184" t="n">
-        <v>-7.874354839324951</v>
+        <v>-12.00779151916504</v>
       </c>
       <c r="D184" t="n">
-        <v>6.440708637237549</v>
+        <v>3.882883787155151</v>
       </c>
       <c r="E184" t="n">
-        <v>-9.009719848632812</v>
+        <v>-6.975628852844238</v>
       </c>
       <c r="F184" t="n">
-        <v>-7.644023418426514</v>
+        <v>-12.44855308532715</v>
       </c>
       <c r="G184" t="n">
-        <v>7.692938804626465</v>
+        <v>3.312143802642822</v>
       </c>
       <c r="H184" t="n">
-        <v>-9.27952766418457</v>
+        <v>-6.906155586242676</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.3833329379558563</v>
+        <v>0.4108403325080872</v>
       </c>
       <c r="B185" t="n">
-        <v>0.3578815758228302</v>
+        <v>0.422522097826004</v>
       </c>
       <c r="C185" t="n">
-        <v>-6.14915132522583</v>
+        <v>-10.13297557830811</v>
       </c>
       <c r="D185" t="n">
-        <v>9.34844970703125</v>
+        <v>8.249347686767578</v>
       </c>
       <c r="E185" t="n">
-        <v>-9.658821105957031</v>
+        <v>-10.81744003295898</v>
       </c>
       <c r="F185" t="n">
-        <v>-6.086667060852051</v>
+        <v>-10.69037342071533</v>
       </c>
       <c r="G185" t="n">
-        <v>11.05447006225586</v>
+        <v>7.877542495727539</v>
       </c>
       <c r="H185" t="n">
-        <v>-9.46086311340332</v>
+        <v>-11.56293201446533</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.3299326598644257</v>
+        <v>0.3441821038722992</v>
       </c>
       <c r="B186" t="n">
-        <v>0.2949931025505066</v>
+        <v>0.3694998025894165</v>
       </c>
       <c r="C186" t="n">
-        <v>-4.511255741119385</v>
+        <v>-7.417584896087646</v>
       </c>
       <c r="D186" t="n">
-        <v>12.53249835968018</v>
+        <v>12.68464756011963</v>
       </c>
       <c r="E186" t="n">
-        <v>-9.507023811340332</v>
+        <v>-13.20073986053467</v>
       </c>
       <c r="F186" t="n">
-        <v>-4.300275802612305</v>
+        <v>-8.522242546081543</v>
       </c>
       <c r="G186" t="n">
-        <v>13.94412899017334</v>
+        <v>12.58806419372559</v>
       </c>
       <c r="H186" t="n">
-        <v>-8.486875534057617</v>
+        <v>-13.71494579315186</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.2626243233680725</v>
+        <v>0.2878823280334473</v>
       </c>
       <c r="B187" t="n">
-        <v>0.7010401372312709</v>
+        <v>0.6285766027161959</v>
       </c>
       <c r="C187" t="n">
-        <v>-2.446771860122681</v>
+        <v>-5.12415599822998</v>
       </c>
       <c r="D187" t="n">
-        <v>14.99991703033447</v>
+        <v>16.64542007446289</v>
       </c>
       <c r="E187" t="n">
-        <v>-7.883303165435791</v>
+        <v>-12.9585018157959</v>
       </c>
       <c r="F187" t="n">
-        <v>-2.304906845092773</v>
+        <v>-6.17999267578125</v>
       </c>
       <c r="G187" t="n">
-        <v>16.14504623413086</v>
+        <v>16.33876800537109</v>
       </c>
       <c r="H187" t="n">
-        <v>-6.303500175476074</v>
+        <v>-14.03706932067871</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.718923312460624</v>
+        <v>0.7092535528814417</v>
       </c>
       <c r="B188" t="n">
-        <v>0.9086040823992455</v>
+        <v>0.8292478807691983</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.5881639719009399</v>
+        <v>-2.21187162399292</v>
       </c>
       <c r="D188" t="n">
-        <v>16.29212760925293</v>
+        <v>20.22937965393066</v>
       </c>
       <c r="E188" t="n">
-        <v>-5.595971584320068</v>
+        <v>-11.45758056640625</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.5233044028282166</v>
+        <v>-3.376269817352295</v>
       </c>
       <c r="G188" t="n">
-        <v>17.52198028564453</v>
+        <v>20.02864074707031</v>
       </c>
       <c r="H188" t="n">
-        <v>-3.95822286605835</v>
+        <v>-12.27178001403809</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.9230278208369879</v>
+        <v>0.9169699533344857</v>
       </c>
       <c r="B189" t="n">
-        <v>0.9823169580294614</v>
+        <v>0.9432147556786215</v>
       </c>
       <c r="C189" t="n">
-        <v>1.156734943389893</v>
+        <v>0.4374227225780487</v>
       </c>
       <c r="D189" t="n">
-        <v>16.96381759643555</v>
+        <v>22.50185585021973</v>
       </c>
       <c r="E189" t="n">
-        <v>-3.514127016067505</v>
+        <v>-8.594590187072754</v>
       </c>
       <c r="F189" t="n">
-        <v>1.16640567779541</v>
+        <v>-0.6203433275222778</v>
       </c>
       <c r="G189" t="n">
-        <v>17.4249324798584</v>
+        <v>22.6057186126709</v>
       </c>
       <c r="H189" t="n">
-        <v>-1.866386413574219</v>
+        <v>-8.941668510437012</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9857990229161209</v>
+        <v>0.9855807825871554</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9985851840946794</v>
+        <v>0.9878691597672409</v>
       </c>
       <c r="C190" t="n">
-        <v>2.609267950057983</v>
+        <v>2.853629589080811</v>
       </c>
       <c r="D190" t="n">
-        <v>16.21981620788574</v>
+        <v>23.13140487670898</v>
       </c>
       <c r="E190" t="n">
-        <v>-1.251863718032837</v>
+        <v>-5.452332496643066</v>
       </c>
       <c r="F190" t="n">
-        <v>2.874663352966309</v>
+        <v>1.957194089889526</v>
       </c>
       <c r="G190" t="n">
-        <v>16.47329711914062</v>
+        <v>23.71908569335938</v>
       </c>
       <c r="H190" t="n">
-        <v>-0.004277260974049568</v>
+        <v>-5.113814830780029</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9983899934928101</v>
+        <v>0.9988826503979445</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9999814338728027</v>
+        <v>0.9985406475058907</v>
       </c>
       <c r="C191" t="n">
-        <v>3.765439748764038</v>
+        <v>4.929998397827148</v>
       </c>
       <c r="D191" t="n">
-        <v>14.76664161682129</v>
+        <v>23.6248664855957</v>
       </c>
       <c r="E191" t="n">
-        <v>0.6005672216415405</v>
+        <v>-2.4016273021698</v>
       </c>
       <c r="F191" t="n">
-        <v>3.881650447845459</v>
+        <v>3.97976541519165</v>
       </c>
       <c r="G191" t="n">
-        <v>14.84193134307861</v>
+        <v>23.94449424743652</v>
       </c>
       <c r="H191" t="n">
-        <v>1.459843397140503</v>
+        <v>-2.052585124969482</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9999157681662172</v>
+        <v>1.000003431386061</v>
       </c>
       <c r="B192" t="n">
-        <v>1.000000737102795</v>
+        <v>0.999945834940616</v>
       </c>
       <c r="C192" t="n">
-        <v>4.757964611053467</v>
+        <v>6.669323921203613</v>
       </c>
       <c r="D192" t="n">
-        <v>13.27702617645264</v>
+        <v>22.73782157897949</v>
       </c>
       <c r="E192" t="n">
-        <v>1.936467528343201</v>
+        <v>0.2614696323871613</v>
       </c>
       <c r="F192" t="n">
-        <v>4.676918983459473</v>
+        <v>5.782571792602539</v>
       </c>
       <c r="G192" t="n">
-        <v>12.4222354888916</v>
+        <v>22.78177642822266</v>
       </c>
       <c r="H192" t="n">
-        <v>2.565432548522949</v>
+        <v>0.4537018835544586</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.9999985599436444</v>
+        <v>0.9999997818815379</v>
       </c>
       <c r="B193" t="n">
-        <v>0.999999943497533</v>
+        <v>1.000002444722012</v>
       </c>
       <c r="C193" t="n">
-        <v>5.33052921295166</v>
+        <v>7.975409507751465</v>
       </c>
       <c r="D193" t="n">
-        <v>9.975189208984375</v>
+        <v>20.0154857635498</v>
       </c>
       <c r="E193" t="n">
-        <v>3.042549848556519</v>
+        <v>2.196322202682495</v>
       </c>
       <c r="F193" t="n">
-        <v>5.233252048492432</v>
+        <v>7.565120697021484</v>
       </c>
       <c r="G193" t="n">
-        <v>10.07668876647949</v>
+        <v>21.04085731506348</v>
       </c>
       <c r="H193" t="n">
-        <v>2.976762294769287</v>
+        <v>2.457331895828247</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.000000008741333</v>
+        <v>1.000000024794928</v>
       </c>
       <c r="B194" t="n">
-        <v>1.000000005155353</v>
+        <v>0.9999997543394621</v>
       </c>
       <c r="C194" t="n">
-        <v>5.707127571105957</v>
+        <v>9.057304382324219</v>
       </c>
       <c r="D194" t="n">
-        <v>7.184961795806885</v>
+        <v>16.92914390563965</v>
       </c>
       <c r="E194" t="n">
-        <v>3.508366346359253</v>
+        <v>3.509753942489624</v>
       </c>
       <c r="F194" t="n">
-        <v>5.452850818634033</v>
+        <v>8.764707565307617</v>
       </c>
       <c r="G194" t="n">
-        <v>6.967430114746094</v>
+        <v>17.97925567626953</v>
       </c>
       <c r="H194" t="n">
-        <v>3.410318613052368</v>
+        <v>3.529918670654297</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.9999999999291956</v>
+        <v>0.9999999969319265</v>
       </c>
       <c r="B195" t="n">
-        <v>0.999999999380951</v>
+        <v>1.000000031861374</v>
       </c>
       <c r="C195" t="n">
-        <v>5.740124702453613</v>
+        <v>9.274533271789551</v>
       </c>
       <c r="D195" t="n">
-        <v>3.966853857040405</v>
+        <v>12.94192886352539</v>
       </c>
       <c r="E195" t="n">
-        <v>3.496901750564575</v>
+        <v>4.04433012008667</v>
       </c>
       <c r="F195" t="n">
-        <v>5.887002468109131</v>
+        <v>9.397767066955566</v>
       </c>
       <c r="G195" t="n">
-        <v>3.662836074829102</v>
+        <v>14.05816745758057</v>
       </c>
       <c r="H195" t="n">
-        <v>2.991185665130615</v>
+        <v>4.143164157867432</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1.000000000001607</v>
+        <v>1.000000000472655</v>
       </c>
       <c r="B196" t="n">
-        <v>1.000000000084498</v>
+        <v>0.9999999949865813</v>
       </c>
       <c r="C196" t="n">
-        <v>5.977315425872803</v>
+        <v>9.929101943969727</v>
       </c>
       <c r="D196" t="n">
-        <v>0.302618145942688</v>
+        <v>8.371855735778809</v>
       </c>
       <c r="E196" t="n">
-        <v>3.10373854637146</v>
+        <v>3.888062953948975</v>
       </c>
       <c r="F196" t="n">
-        <v>6.13417387008667</v>
+        <v>9.997095108032227</v>
       </c>
       <c r="G196" t="n">
-        <v>0.3093861639499664</v>
+        <v>9.621668815612793</v>
       </c>
       <c r="H196" t="n">
-        <v>2.394617795944214</v>
+        <v>4.232060432434082</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.9999999999999797</v>
+        <v>0.9999999999226032</v>
       </c>
       <c r="B197" t="n">
-        <v>0.9999999999877607</v>
+        <v>1.000000000816422</v>
       </c>
       <c r="C197" t="n">
-        <v>5.814563274383545</v>
+        <v>10.13837242126465</v>
       </c>
       <c r="D197" t="n">
-        <v>-3.108584642410278</v>
+        <v>3.79427695274353</v>
       </c>
       <c r="E197" t="n">
-        <v>2.498273611068726</v>
+        <v>3.304753541946411</v>
       </c>
       <c r="F197" t="n">
-        <v>6.259880065917969</v>
+        <v>10.11621379852295</v>
       </c>
       <c r="G197" t="n">
-        <v>-3.091205835342407</v>
+        <v>5.436280250549316</v>
       </c>
       <c r="H197" t="n">
-        <v>1.814095854759216</v>
+        <v>3.797188997268677</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000012529</v>
       </c>
       <c r="B198" t="n">
-        <v>1.000000000001714</v>
+        <v>0.9999999998563082</v>
       </c>
       <c r="C198" t="n">
-        <v>5.551821708679199</v>
+        <v>10.0980167388916</v>
       </c>
       <c r="D198" t="n">
-        <v>-6.241950988769531</v>
+        <v>-0.9366040825843811</v>
       </c>
       <c r="E198" t="n">
-        <v>1.720293402671814</v>
+        <v>2.361812353134155</v>
       </c>
       <c r="F198" t="n">
-        <v>6.187250137329102</v>
+        <v>10.40130043029785</v>
       </c>
       <c r="G198" t="n">
-        <v>-6.046876907348633</v>
+        <v>0.6643362641334534</v>
       </c>
       <c r="H198" t="n">
-        <v>1.408404946327209</v>
+        <v>3.044307947158813</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>0.9999999999981903</v>
       </c>
       <c r="B199" t="n">
-        <v>0.999999999999748</v>
+        <v>1.000000000023365</v>
       </c>
       <c r="C199" t="n">
-        <v>5.876769542694092</v>
+        <v>9.721402168273926</v>
       </c>
       <c r="D199" t="n">
-        <v>-8.37983512878418</v>
+        <v>-5.006347179412842</v>
       </c>
       <c r="E199" t="n">
-        <v>1.093204975128174</v>
+        <v>1.411149382591248</v>
       </c>
       <c r="F199" t="n">
-        <v>6.293302059173584</v>
+        <v>10.11092853546143</v>
       </c>
       <c r="G199" t="n">
-        <v>-8.155702590942383</v>
+        <v>-3.50370979309082</v>
       </c>
       <c r="H199" t="n">
-        <v>1.106780886650085</v>
+        <v>2.398000955581665</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>1.000000000000276</v>
       </c>
       <c r="B200" t="n">
-        <v>1.000000000000039</v>
+        <v>0.9999999999968147</v>
       </c>
       <c r="C200" t="n">
-        <v>6.075613498687744</v>
+        <v>9.8912353515625</v>
       </c>
       <c r="D200" t="n">
-        <v>-9.873741149902344</v>
+        <v>-8.498724937438965</v>
       </c>
       <c r="E200" t="n">
-        <v>0.8066903948783875</v>
+        <v>0.7352397441864014</v>
       </c>
       <c r="F200" t="n">
-        <v>6.392130374908447</v>
+        <v>9.541488647460938</v>
       </c>
       <c r="G200" t="n">
-        <v>-9.637646675109863</v>
+        <v>-7.120436191558838</v>
       </c>
       <c r="H200" t="n">
-        <v>1.323482394218445</v>
+        <v>1.920384168624878</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1</v>
+        <v>0.999999999999964</v>
       </c>
       <c r="B201" t="n">
-        <v>0.9999999999999939</v>
+        <v>1.000000000000372</v>
       </c>
       <c r="C201" t="n">
-        <v>6.07198429107666</v>
+        <v>9.425572395324707</v>
       </c>
       <c r="D201" t="n">
-        <v>-10.00735950469971</v>
+        <v>-10.75275230407715</v>
       </c>
       <c r="E201" t="n">
-        <v>0.7347894906997681</v>
+        <v>0.2742102444171906</v>
       </c>
       <c r="F201" t="n">
-        <v>6.470539093017578</v>
+        <v>9.120033264160156</v>
       </c>
       <c r="G201" t="n">
-        <v>-9.823287010192871</v>
+        <v>-9.851492881774902</v>
       </c>
       <c r="H201" t="n">
-        <v>1.348788857460022</v>
+        <v>1.711142659187317</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1</v>
+        <v>1.000000000000005</v>
       </c>
       <c r="B202" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999608</v>
       </c>
       <c r="C202" t="n">
-        <v>6.326111793518066</v>
+        <v>9.545272827148438</v>
       </c>
       <c r="D202" t="n">
-        <v>-10.09772205352783</v>
+        <v>-12.0631275177002</v>
       </c>
       <c r="E202" t="n">
-        <v>0.6035839319229126</v>
+        <v>-0.06497316062450409</v>
       </c>
       <c r="F202" t="n">
-        <v>6.206149578094482</v>
+        <v>8.865662574768066</v>
       </c>
       <c r="G202" t="n">
-        <v>-9.639187812805176</v>
+        <v>-11.84206390380859</v>
       </c>
       <c r="H202" t="n">
-        <v>0.9204248189926147</v>
+        <v>1.399205446243286</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="B203" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="C203" t="n">
-        <v>6.004916667938232</v>
+        <v>9.25901985168457</v>
       </c>
       <c r="D203" t="n">
-        <v>-9.591623306274414</v>
+        <v>-12.69099712371826</v>
       </c>
       <c r="E203" t="n">
-        <v>0.01254278793931007</v>
+        <v>-0.7626537680625916</v>
       </c>
       <c r="F203" t="n">
-        <v>6.264739990234375</v>
+        <v>8.342733383178711</v>
       </c>
       <c r="G203" t="n">
-        <v>-9.087127685546875</v>
+        <v>-12.18483352661133</v>
       </c>
       <c r="H203" t="n">
-        <v>0.03806411847472191</v>
+        <v>0.6415711641311646</v>
       </c>
     </row>
     <row r="204">
@@ -5732,25 +5732,25 @@
         <v>1</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="C204" t="n">
-        <v>5.800717353820801</v>
+        <v>8.621152877807617</v>
       </c>
       <c r="D204" t="n">
-        <v>-8.530075073242188</v>
+        <v>-12.05507659912109</v>
       </c>
       <c r="E204" t="n">
-        <v>-0.916081428527832</v>
+        <v>-1.537584900856018</v>
       </c>
       <c r="F204" t="n">
-        <v>5.835411548614502</v>
+        <v>7.98448657989502</v>
       </c>
       <c r="G204" t="n">
-        <v>-8.111274719238281</v>
+        <v>-12.11134624481201</v>
       </c>
       <c r="H204" t="n">
-        <v>-1.277518749237061</v>
+        <v>-0.6527107357978821</v>
       </c>
     </row>
     <row r="205">
@@ -5761,22 +5761,22 @@
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>5.461717128753662</v>
+        <v>7.663399696350098</v>
       </c>
       <c r="D205" t="n">
-        <v>-7.16706371307373</v>
+        <v>-10.81231117248535</v>
       </c>
       <c r="E205" t="n">
-        <v>-1.941369652748108</v>
+        <v>-2.701393604278564</v>
       </c>
       <c r="F205" t="n">
-        <v>5.532367706298828</v>
+        <v>7.58485221862793</v>
       </c>
       <c r="G205" t="n">
-        <v>-6.962334156036377</v>
+        <v>-11.49697589874268</v>
       </c>
       <c r="H205" t="n">
-        <v>-2.695385217666626</v>
+        <v>-2.186801195144653</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_cp_cnn.xlsx
+++ b/Predictions/PV_cp_cnn.xlsx
@@ -483,1322 +483,1322 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.653803825378418</v>
+        <v>7.228312492370605</v>
       </c>
       <c r="D2" t="n">
-        <v>-9.45506477355957</v>
+        <v>-5.794445037841797</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.90446662902832</v>
+        <v>-0.2779783308506012</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.836400032043457</v>
+        <v>-8.81078052520752</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.899656057357788</v>
+        <v>-1.111973762512207</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6799779534339905</v>
+        <v>-1.36834442615509</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.03955951504409314</v>
+        <v>0.07536812081933023</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1568202170729637</v>
+        <v>0.1138364183902741</v>
       </c>
       <c r="C3" t="n">
-        <v>6.982532501220703</v>
+        <v>4.650302410125732</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.362154483795166</v>
+        <v>-7.117703437805176</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.915628433227539</v>
+        <v>-1.537674903869629</v>
       </c>
       <c r="F3" t="n">
-        <v>-10.17363929748535</v>
+        <v>-9.675335884094238</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1271894425153732</v>
+        <v>1.554833292961121</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.742504596710205</v>
+        <v>-1.911463260650635</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0760839606821537</v>
+        <v>0.03255421958863736</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7650198936462402</v>
+        <v>0.04652358889579773</v>
       </c>
       <c r="C4" t="n">
-        <v>3.098288774490356</v>
+        <v>6.114776611328125</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.170287609100342</v>
+        <v>-3.026534557342529</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.422814846038818</v>
+        <v>-2.383892059326172</v>
       </c>
       <c r="F4" t="n">
-        <v>-8.191237449645996</v>
+        <v>-9.164113998413086</v>
       </c>
       <c r="G4" t="n">
-        <v>3.839830875396729</v>
+        <v>5.175035953521729</v>
       </c>
       <c r="H4" t="n">
-        <v>-8.351227760314941</v>
+        <v>-7.086348056793213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.07078120946884156</v>
+        <v>0.1580563044548035</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.576290118694305</v>
+        <v>-0.2161237114667893</v>
       </c>
       <c r="C5" t="n">
-        <v>3.276397943496704</v>
+        <v>1.821904897689819</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.016393184661865</v>
+        <v>-4.379329681396484</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.721666812896729</v>
+        <v>-3.430261850357056</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.446614265441895</v>
+        <v>-7.169382095336914</v>
       </c>
       <c r="G5" t="n">
-        <v>6.625461578369141</v>
+        <v>6.794341087341309</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.255023956298828</v>
+        <v>-8.489947319030762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.149731317460537</v>
+        <v>0.06525570601224899</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.888343858718872</v>
+        <v>-0.3636230206489563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6246141791343689</v>
+        <v>4.996203422546387</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.865157127380371</v>
+        <v>-4.082178115844727</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.726386070251465</v>
+        <v>-0.02229289337992668</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.775547981262207</v>
+        <v>-6.049166679382324</v>
       </c>
       <c r="G6" t="n">
-        <v>12.28879928588867</v>
+        <v>8.814714431762695</v>
       </c>
       <c r="H6" t="n">
-        <v>-9.456803321838379</v>
+        <v>-10.54623985290527</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1488613161444664</v>
+        <v>0.2138410636782646</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.7408175563812256</v>
+        <v>-0.4543855130672455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6538363099098206</v>
+        <v>-0.0862443745136261</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.128524303436279</v>
+        <v>-2.910331964492798</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.34001350402832</v>
+        <v>1.411149978637695</v>
       </c>
       <c r="F7" t="n">
-        <v>-8.243284225463867</v>
+        <v>-5.359851360321045</v>
       </c>
       <c r="G7" t="n">
-        <v>11.89204502105713</v>
+        <v>10.24255752563477</v>
       </c>
       <c r="H7" t="n">
-        <v>-10.34447765350342</v>
+        <v>-12.00791549682617</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.08749550953507423</v>
+        <v>0.1569643959403038</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.7135080575943</v>
+        <v>-0.628906387090683</v>
       </c>
       <c r="C8" t="n">
-        <v>2.714996576309204</v>
+        <v>1.859254837036133</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.651477813720703</v>
+        <v>-3.709414005279541</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.041460037231445</v>
+        <v>2.289684295654297</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.850562691688538</v>
+        <v>-4.034414768218994</v>
       </c>
       <c r="G8" t="n">
-        <v>10.56995105743408</v>
+        <v>12.69857788085938</v>
       </c>
       <c r="H8" t="n">
-        <v>-11.51589393615723</v>
+        <v>-10.32339763641357</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1338613751530647</v>
+        <v>0.1999437719583511</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.032371563911438</v>
+        <v>-0.828288449048996</v>
       </c>
       <c r="C9" t="n">
-        <v>1.157655715942383</v>
+        <v>0.3891207873821259</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.476902008056641</v>
+        <v>-4.748775482177734</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8703367710113525</v>
+        <v>3.028037309646606</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.164852261543274</v>
+        <v>-2.520164728164673</v>
       </c>
       <c r="G9" t="n">
-        <v>17.68305778503418</v>
+        <v>10.12538623809814</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.705341815948486</v>
+        <v>-5.853835105895996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2425306838750839</v>
+        <v>0.2787930589914322</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.553830766677857</v>
+        <v>-0.782946343421936</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.492339611053467</v>
+        <v>-2.307965040206909</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.409841060638428</v>
+        <v>-2.97805643081665</v>
       </c>
       <c r="E10" t="n">
-        <v>1.015111923217773</v>
+        <v>3.011341571807861</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.04346291720867157</v>
+        <v>-2.864524602890015</v>
       </c>
       <c r="G10" t="n">
-        <v>13.41067504882812</v>
+        <v>12.56962871551514</v>
       </c>
       <c r="H10" t="n">
-        <v>-4.840447425842285</v>
+        <v>-5.307701110839844</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.244720171391964</v>
+        <v>0.2654033154249191</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.495678539276123</v>
+        <v>-1.044893441200256</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.565879583358765</v>
+        <v>-1.849961400032043</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.289535999298096</v>
+        <v>-6.708590984344482</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3835521340370178</v>
+        <v>4.705867290496826</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1685182899236679</v>
+        <v>-0.875110387802124</v>
       </c>
       <c r="G11" t="n">
-        <v>16.39345359802246</v>
+        <v>11.23469066619873</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.915578365325928</v>
+        <v>-2.561988353729248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3026859045028686</v>
+        <v>0.2073582744598389</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.227140626907349</v>
+        <v>-1.036592099666596</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.512838363647461</v>
+        <v>0.1355035006999969</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.855685710906982</v>
+        <v>-5.757731437683105</v>
       </c>
       <c r="E12" t="n">
-        <v>2.22714900970459</v>
+        <v>4.075700759887695</v>
       </c>
       <c r="F12" t="n">
-        <v>3.554962158203125</v>
+        <v>-0.9381571412086487</v>
       </c>
       <c r="G12" t="n">
-        <v>16.55867767333984</v>
+        <v>10.3867073059082</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.643069744110107</v>
+        <v>-1.91053295135498</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2357800707221031</v>
+        <v>0.2550461614131928</v>
       </c>
       <c r="B13" t="n">
-        <v>-7.360333452224732</v>
+        <v>-1.307282426357269</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.265599489212036</v>
+        <v>-1.495688796043396</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.806259632110596</v>
+        <v>-4.203418254852295</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1785293221473694</v>
+        <v>5.218381881713867</v>
       </c>
       <c r="F13" t="n">
-        <v>5.991874694824219</v>
+        <v>1.11765992641449</v>
       </c>
       <c r="G13" t="n">
-        <v>15.9516134262085</v>
+        <v>11.05342102050781</v>
       </c>
       <c r="H13" t="n">
-        <v>1.183537840843201</v>
+        <v>2.071201324462891</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.3643946492671967</v>
+        <v>0.2612629589438439</v>
       </c>
       <c r="B14" t="n">
-        <v>-7.376822662353516</v>
+        <v>-1.086449556350708</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.585517406463623</v>
+        <v>-1.708337903022766</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.782844543457031</v>
+        <v>-4.360854625701904</v>
       </c>
       <c r="E14" t="n">
-        <v>3.989960670471191</v>
+        <v>6.152783870697021</v>
       </c>
       <c r="F14" t="n">
-        <v>6.027334213256836</v>
+        <v>-0.5595033168792725</v>
       </c>
       <c r="G14" t="n">
-        <v>12.59235954284668</v>
+        <v>6.175538539886475</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04213961586356163</v>
+        <v>3.464868545532227</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3006063675880432</v>
+        <v>0.3245542120933533</v>
       </c>
       <c r="B15" t="n">
-        <v>-7.597548503875733</v>
+        <v>-1.814876070022583</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.442989826202393</v>
+        <v>-3.873251914978027</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.515466213226318</v>
+        <v>-6.030617237091064</v>
       </c>
       <c r="E15" t="n">
-        <v>4.235147476196289</v>
+        <v>5.205160140991211</v>
       </c>
       <c r="F15" t="n">
-        <v>6.502001285552979</v>
+        <v>4.972690105438232</v>
       </c>
       <c r="G15" t="n">
-        <v>12.2869758605957</v>
+        <v>5.809774875640869</v>
       </c>
       <c r="H15" t="n">
-        <v>0.773665726184845</v>
+        <v>0.8549283742904663</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3208064460754395</v>
+        <v>0.371340696811676</v>
       </c>
       <c r="B16" t="n">
-        <v>-6.547559900283813</v>
+        <v>-1.857650818824768</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.121472358703613</v>
+        <v>-5.473609924316406</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.078282833099365</v>
+        <v>-5.390738010406494</v>
       </c>
       <c r="E16" t="n">
-        <v>5.727447509765625</v>
+        <v>6.029065608978271</v>
       </c>
       <c r="F16" t="n">
-        <v>4.2440185546875</v>
+        <v>5.297551155090332</v>
       </c>
       <c r="G16" t="n">
-        <v>6.770132541656494</v>
+        <v>4.364377975463867</v>
       </c>
       <c r="H16" t="n">
-        <v>2.436364650726318</v>
+        <v>5.239752292633057</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3284795796871186</v>
+        <v>0.3346324223279953</v>
       </c>
       <c r="B17" t="n">
-        <v>-7.392401561737061</v>
+        <v>-1.62575231552124</v>
       </c>
       <c r="C17" t="n">
-        <v>-5.379199504852295</v>
+        <v>-4.217981815338135</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.869113445281982</v>
+        <v>-6.755410194396973</v>
       </c>
       <c r="E17" t="n">
-        <v>5.340146541595459</v>
+        <v>8.228316307067871</v>
       </c>
       <c r="F17" t="n">
-        <v>6.060836791992188</v>
+        <v>3.536346912384033</v>
       </c>
       <c r="G17" t="n">
-        <v>5.522574424743652</v>
+        <v>0.5608872771263123</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8118055462837219</v>
+        <v>4.10211181640625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3895710784196854</v>
+        <v>0.4222528326511383</v>
       </c>
       <c r="B18" t="n">
-        <v>-7.376628570556641</v>
+        <v>-2.01890344619751</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.431145191192627</v>
+        <v>-7.215089321136475</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.544234275817871</v>
+        <v>-8.483136177062988</v>
       </c>
       <c r="E18" t="n">
-        <v>5.811061382293701</v>
+        <v>7.98446798324585</v>
       </c>
       <c r="F18" t="n">
-        <v>6.026916980743408</v>
+        <v>6.522220134735107</v>
       </c>
       <c r="G18" t="n">
-        <v>1.159028649330139</v>
+        <v>-3.338004350662231</v>
       </c>
       <c r="H18" t="n">
-        <v>2.008039474487305</v>
+        <v>2.188982486724854</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.345938048362732</v>
+        <v>0.357539866566658</v>
       </c>
       <c r="B19" t="n">
-        <v>-7.189318361282349</v>
+        <v>-1.812340619564057</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.965595245361328</v>
+        <v>-5.001544952392578</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.017333507537842</v>
+        <v>-5.75928783416748</v>
       </c>
       <c r="E19" t="n">
-        <v>7.390029907226562</v>
+        <v>4.960259914398193</v>
       </c>
       <c r="F19" t="n">
-        <v>5.624109745025635</v>
+        <v>4.953433036804199</v>
       </c>
       <c r="G19" t="n">
-        <v>2.51450514793396</v>
+        <v>-5.089957237243652</v>
       </c>
       <c r="H19" t="n">
-        <v>1.768268227577209</v>
+        <v>2.112699508666992</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3840714317560196</v>
+        <v>0.4294594067335129</v>
       </c>
       <c r="B20" t="n">
-        <v>-6.799793815612794</v>
+        <v>-1.657804882526398</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.24642276763916</v>
+        <v>-7.461594104766846</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.374450206756592</v>
+        <v>-5.931394577026367</v>
       </c>
       <c r="E20" t="n">
-        <v>5.963458061218262</v>
+        <v>5.329039096832275</v>
       </c>
       <c r="F20" t="n">
-        <v>4.786443710327148</v>
+        <v>3.779778480529785</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.265783548355103</v>
+        <v>-9.266704559326172</v>
       </c>
       <c r="H20" t="n">
-        <v>1.997541308403015</v>
+        <v>1.94640064239502</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2890308326482773</v>
+        <v>0.4148256307840347</v>
       </c>
       <c r="B21" t="n">
-        <v>-7.633254823684693</v>
+        <v>-1.751311638355255</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.054190158843994</v>
+        <v>-6.961038112640381</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.59557580947876</v>
+        <v>-7.235725879669189</v>
       </c>
       <c r="E21" t="n">
-        <v>7.018465995788574</v>
+        <v>7.636866092681885</v>
       </c>
       <c r="F21" t="n">
-        <v>6.578786849975586</v>
+        <v>4.489934921264648</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.501266479492188</v>
+        <v>-9.690211296081543</v>
       </c>
       <c r="H21" t="n">
-        <v>2.374178409576416</v>
+        <v>1.161316871643066</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3386340808868408</v>
+        <v>0.4212013441324234</v>
       </c>
       <c r="B22" t="n">
-        <v>-6.609446372985841</v>
+        <v>-1.833708534240723</v>
       </c>
       <c r="C22" t="n">
-        <v>-5.720269203186035</v>
+        <v>-7.179122924804688</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.579771995544434</v>
+        <v>-5.82427453994751</v>
       </c>
       <c r="E22" t="n">
-        <v>7.549747943878174</v>
+        <v>4.19942569732666</v>
       </c>
       <c r="F22" t="n">
-        <v>4.377104759216309</v>
+        <v>5.115716457366943</v>
       </c>
       <c r="G22" t="n">
-        <v>-10.92592334747314</v>
+        <v>-11.59263610839844</v>
       </c>
       <c r="H22" t="n">
-        <v>1.854192852973938</v>
+        <v>0.1981057375669479</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4411210888624191</v>
+        <v>0.4657585847377778</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.940849161148072</v>
+        <v>-1.59283189535141</v>
       </c>
       <c r="C23" t="n">
-        <v>-9.162611961364746</v>
+        <v>-8.703228950500488</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.251810073852539</v>
+        <v>-7.214507102966309</v>
       </c>
       <c r="E23" t="n">
-        <v>6.078746795654297</v>
+        <v>5.207459926605225</v>
       </c>
       <c r="F23" t="n">
-        <v>2.939297437667847</v>
+        <v>3.286325931549072</v>
       </c>
       <c r="G23" t="n">
-        <v>-9.47633171081543</v>
+        <v>-6.39112377166748</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6368582844734192</v>
+        <v>1.137335658073425</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4456500554084778</v>
+        <v>0.53</v>
       </c>
       <c r="B24" t="n">
-        <v>-6.180853271484375</v>
+        <v>-1.583214874267578</v>
       </c>
       <c r="C24" t="n">
-        <v>-9.314731597900391</v>
+        <v>-10.90064239501953</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.079325199127197</v>
+        <v>-9.144157409667969</v>
       </c>
       <c r="E24" t="n">
-        <v>4.485651016235352</v>
+        <v>3.515982627868652</v>
       </c>
       <c r="F24" t="n">
-        <v>3.455422878265381</v>
+        <v>3.213288307189941</v>
       </c>
       <c r="G24" t="n">
-        <v>-9.130809783935547</v>
+        <v>-10.74576473236084</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1205405294895172</v>
+        <v>1.436156511306763</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.491607638001442</v>
+        <v>0.4223352837562561</v>
       </c>
       <c r="B25" t="n">
-        <v>-6.48880467414856</v>
+        <v>-1.681421532630921</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.85835933685303</v>
+        <v>-7.217909336090088</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.731420993804932</v>
+        <v>-5.234928607940674</v>
       </c>
       <c r="E25" t="n">
-        <v>3.573874473571777</v>
+        <v>1.553748726844788</v>
       </c>
       <c r="F25" t="n">
-        <v>4.117667198181152</v>
+        <v>3.959140300750732</v>
       </c>
       <c r="G25" t="n">
-        <v>-11.33881282806396</v>
+        <v>-8.197382926940918</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.8750782012939453</v>
+        <v>-1.876669406890869</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4214950090646744</v>
+        <v>0.4993910855054856</v>
       </c>
       <c r="B26" t="n">
-        <v>-6.662927255630493</v>
+        <v>-1.893256933689118</v>
       </c>
       <c r="C26" t="n">
-        <v>-8.503409385681152</v>
+        <v>-9.85364818572998</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.92297625541687</v>
+        <v>-4.927354335784912</v>
       </c>
       <c r="E26" t="n">
-        <v>4.289812564849854</v>
+        <v>1.278206825256348</v>
       </c>
       <c r="F26" t="n">
-        <v>4.492114067077637</v>
+        <v>5.56796932220459</v>
       </c>
       <c r="G26" t="n">
-        <v>-11.95578861236572</v>
+        <v>-8.976748466491699</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03409799560904503</v>
+        <v>-2.002404689788818</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.53</v>
+        <v>0.4895886915922165</v>
       </c>
       <c r="B27" t="n">
-        <v>-6.60126368522644</v>
+        <v>-1.921651704311371</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.14788627624512</v>
+        <v>-9.518351554870605</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.128310680389404</v>
+        <v>-5.744802474975586</v>
       </c>
       <c r="E27" t="n">
-        <v>2.17871880531311</v>
+        <v>-0.5590262413024902</v>
       </c>
       <c r="F27" t="n">
-        <v>4.359508037567139</v>
+        <v>5.783620357513428</v>
       </c>
       <c r="G27" t="n">
-        <v>-11.91915321350098</v>
+        <v>-4.451342105865479</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.1532654166221619</v>
+        <v>-1.0870760679245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4611238217353821</v>
+        <v>0.5293366634845734</v>
       </c>
       <c r="B28" t="n">
-        <v>-7.341657676696777</v>
+        <v>-2.242750930786133</v>
       </c>
       <c r="C28" t="n">
-        <v>-9.834465980529785</v>
+        <v>-10.87795257568359</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4804942607879639</v>
+        <v>-2.23879599571228</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.681118369102478</v>
+        <v>-1.881641030311584</v>
       </c>
       <c r="F28" t="n">
-        <v>5.951713085174561</v>
+        <v>8.222277641296387</v>
       </c>
       <c r="G28" t="n">
-        <v>-9.12940788269043</v>
+        <v>-5.495316028594971</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.706722617149353</v>
+        <v>-4.673801898956299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.3765462678670883</v>
+        <v>0.5288608479499817</v>
       </c>
       <c r="B29" t="n">
-        <v>-6.523819541931153</v>
+        <v>-1.929557912349701</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.993666648864746</v>
+        <v>-10.86167812347412</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.3383738994598389</v>
+        <v>-2.683833837509155</v>
       </c>
       <c r="E29" t="n">
-        <v>-2.455382108688354</v>
+        <v>-4.134635448455811</v>
       </c>
       <c r="F29" t="n">
-        <v>4.192965507507324</v>
+        <v>5.843664646148682</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.344018459320068</v>
+        <v>-2.244258165359497</v>
       </c>
       <c r="H29" t="n">
-        <v>-5.332154750823975</v>
+        <v>-3.180820941925049</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.3696409088373184</v>
+        <v>0.4927377235889435</v>
       </c>
       <c r="B30" t="n">
-        <v>-7.121702642440797</v>
+        <v>-1.703421256542206</v>
       </c>
       <c r="C30" t="n">
-        <v>-6.76172924041748</v>
+        <v>-9.626065254211426</v>
       </c>
       <c r="D30" t="n">
-        <v>3.226950407028198</v>
+        <v>-1.133121013641357</v>
       </c>
       <c r="E30" t="n">
-        <v>-7.505757331848145</v>
+        <v>-7.52944803237915</v>
       </c>
       <c r="F30" t="n">
-        <v>5.478703498840332</v>
+        <v>4.126221656799316</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.42233943939209</v>
+        <v>-2.371614933013916</v>
       </c>
       <c r="H30" t="n">
-        <v>-2.978699445724487</v>
+        <v>-3.170746564865112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2783848470449448</v>
+        <v>0.4475151562690735</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.707650899887085</v>
+        <v>-1.942450737953186</v>
       </c>
       <c r="C31" t="n">
-        <v>-3.696612119674683</v>
+        <v>-8.079201698303223</v>
       </c>
       <c r="D31" t="n">
-        <v>1.489211082458496</v>
+        <v>-0.1031844615936279</v>
       </c>
       <c r="E31" t="n">
-        <v>-8.876958847045898</v>
+        <v>-12.06551647186279</v>
       </c>
       <c r="F31" t="n">
-        <v>2.437807559967041</v>
+        <v>5.941583156585693</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.759764671325684</v>
+        <v>0.1195114031434059</v>
       </c>
       <c r="H31" t="n">
-        <v>-3.03329873085022</v>
+        <v>-0.4839966893196106</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3707437318563461</v>
+        <v>0.3692361718416214</v>
       </c>
       <c r="B32" t="n">
-        <v>-6.77438497543335</v>
+        <v>-1.686814150810242</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.798770904541016</v>
+        <v>-5.401623725891113</v>
       </c>
       <c r="D32" t="n">
-        <v>6.546842098236084</v>
+        <v>8.460021018981934</v>
       </c>
       <c r="E32" t="n">
-        <v>-11.294677734375</v>
+        <v>-15.16560649871826</v>
       </c>
       <c r="F32" t="n">
-        <v>4.731802463531494</v>
+        <v>4.000095367431641</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.677718639373779</v>
+        <v>0.1398295611143112</v>
       </c>
       <c r="H32" t="n">
-        <v>-4.939930438995361</v>
+        <v>-3.052057266235352</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2245207720994949</v>
+        <v>0.468418185710907</v>
       </c>
       <c r="B33" t="n">
-        <v>-6.712632446289063</v>
+        <v>-1.713371493816376</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.887420892715454</v>
+        <v>-8.794201850891113</v>
       </c>
       <c r="D33" t="n">
-        <v>6.690071105957031</v>
+        <v>7.909018039703369</v>
       </c>
       <c r="E33" t="n">
-        <v>-11.49570274353027</v>
+        <v>-14.52505588531494</v>
       </c>
       <c r="F33" t="n">
-        <v>4.599004745483398</v>
+        <v>4.201790332794189</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.09229040145874</v>
+        <v>0.8828971982002258</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.373816728591919</v>
+        <v>0.3448257446289062</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1530321574211121</v>
+        <v>0.326066700220108</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.939880723953247</v>
+        <v>-1.36983747959137</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5137457251548767</v>
+        <v>-3.924986362457275</v>
       </c>
       <c r="D34" t="n">
-        <v>9.677059173583984</v>
+        <v>6.153608322143555</v>
       </c>
       <c r="E34" t="n">
-        <v>-12.36382675170898</v>
+        <v>-15.3846607208252</v>
       </c>
       <c r="F34" t="n">
-        <v>2.937215328216553</v>
+        <v>1.592746734619141</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.109493732452393</v>
+        <v>-0.3612797558307648</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7524218559265137</v>
+        <v>1.108520030975342</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.5760446442309581</v>
+        <v>0.5950227178842504</v>
       </c>
       <c r="B35" t="n">
-        <v>67.12821872158977</v>
+        <v>8.855342908731643</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.256949663162231</v>
+        <v>-3.665666580200195</v>
       </c>
       <c r="D35" t="n">
-        <v>9.320235252380371</v>
+        <v>11.11362266540527</v>
       </c>
       <c r="E35" t="n">
-        <v>-12.42622756958008</v>
+        <v>-12.79242420196533</v>
       </c>
       <c r="F35" t="n">
-        <v>1.024024367332458</v>
+        <v>4.531621932983398</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.465534210205078</v>
+        <v>-3.008621215820312</v>
       </c>
       <c r="H35" t="n">
-        <v>0.166785255074501</v>
+        <v>1.883589744567871</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9258429132933984</v>
+        <v>0.7624046279039651</v>
       </c>
       <c r="B36" t="n">
-        <v>-598.0477792531145</v>
+        <v>-14.98458341281871</v>
       </c>
       <c r="C36" t="n">
-        <v>2.539982080459595</v>
+        <v>-3.407731056213379</v>
       </c>
       <c r="D36" t="n">
-        <v>12.40510082244873</v>
+        <v>12.71925735473633</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.936156749725342</v>
+        <v>-11.94880676269531</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4885174036026001</v>
+        <v>-0.6200312376022339</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.672225475311279</v>
+        <v>2.670026540756226</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.611362099647522</v>
+        <v>4.217447757720947</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9854273361874343</v>
+        <v>0.9170946474485934</v>
       </c>
       <c r="B37" t="n">
-        <v>6025.956393897622</v>
+        <v>40.50541976792329</v>
       </c>
       <c r="C37" t="n">
-        <v>2.155580759048462</v>
+        <v>0.9024844765663147</v>
       </c>
       <c r="D37" t="n">
-        <v>12.78581237792969</v>
+        <v>13.43979549407959</v>
       </c>
       <c r="E37" t="n">
-        <v>-5.631823539733887</v>
+        <v>-10.51724624633789</v>
       </c>
       <c r="F37" t="n">
-        <v>1.626761674880981</v>
+        <v>1.137380957603455</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.977789640426636</v>
+        <v>0.7999133467674255</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4700658321380615</v>
+        <v>2.309535264968872</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9994786432932744</v>
+        <v>0.9787145859392893</v>
       </c>
       <c r="B38" t="n">
-        <v>-49178.69888090814</v>
+        <v>-106.9516739153979</v>
       </c>
       <c r="C38" t="n">
-        <v>5.016924381256104</v>
+        <v>2.573819875717163</v>
       </c>
       <c r="D38" t="n">
-        <v>12.49951267242432</v>
+        <v>14.915358543396</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.9030991792678833</v>
+        <v>-6.284309387207031</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5329524874687195</v>
+        <v>2.188395500183105</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.772716522216797</v>
+        <v>-1.803589224815369</v>
       </c>
       <c r="H38" t="n">
-        <v>1.688389897346497</v>
+        <v>3.970500469207764</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9999257146760382</v>
+        <v>0.9979468311956392</v>
       </c>
       <c r="B39" t="n">
-        <v>433650.9197279753</v>
+        <v>212.6521538415099</v>
       </c>
       <c r="C39" t="n">
-        <v>3.117336511611938</v>
+        <v>5.479612350463867</v>
       </c>
       <c r="D39" t="n">
-        <v>11.91916275024414</v>
+        <v>14.30289649963379</v>
       </c>
       <c r="E39" t="n">
-        <v>2.331615924835205</v>
+        <v>-3.044485807418823</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2135843187570572</v>
+        <v>-0.9188953638076782</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.424475431442261</v>
+        <v>-7.411818027496338</v>
       </c>
       <c r="H39" t="n">
-        <v>1.144328236579895</v>
+        <v>2.538632392883301</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.999999749297701</v>
+        <v>0.9996459995648017</v>
       </c>
       <c r="B40" t="n">
-        <v>-3191328.746648094</v>
+        <v>-390.215602888904</v>
       </c>
       <c r="C40" t="n">
-        <v>5.593725681304932</v>
+        <v>4.102579116821289</v>
       </c>
       <c r="D40" t="n">
-        <v>11.59312152862549</v>
+        <v>9.230926513671875</v>
       </c>
       <c r="E40" t="n">
-        <v>1.168919086456299</v>
+        <v>0.1069190949201584</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.448671698570251</v>
+        <v>-1.370643615722656</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.680985927581787</v>
+        <v>-5.339004039764404</v>
       </c>
       <c r="H40" t="n">
-        <v>1.698674321174622</v>
+        <v>3.785541296005249</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.000000001762465</v>
+        <v>0.9999339407975442</v>
       </c>
       <c r="B41" t="n">
-        <v>19699683.16564975</v>
+        <v>507.9977188326129</v>
       </c>
       <c r="C41" t="n">
-        <v>5.778951644897461</v>
+        <v>3.845309972763062</v>
       </c>
       <c r="D41" t="n">
-        <v>10.50806140899658</v>
+        <v>13.17351531982422</v>
       </c>
       <c r="E41" t="n">
-        <v>6.034224510192871</v>
+        <v>2.27704644203186</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.800826549530029</v>
+        <v>-3.594303607940674</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.035259246826172</v>
+        <v>-9.653149604797363</v>
       </c>
       <c r="H41" t="n">
-        <v>3.173066854476929</v>
+        <v>2.839799165725708</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9999999997511972</v>
+        <v>0.9999952383626939</v>
       </c>
       <c r="B42" t="n">
-        <v>-65333767.48886446</v>
+        <v>-263.4877011079259</v>
       </c>
       <c r="C42" t="n">
-        <v>8.166824340820312</v>
+        <v>5.921552658081055</v>
       </c>
       <c r="D42" t="n">
-        <v>8.219392776489258</v>
+        <v>7.725522518157959</v>
       </c>
       <c r="E42" t="n">
-        <v>5.934537410736084</v>
+        <v>1.950505375862122</v>
       </c>
       <c r="F42" t="n">
-        <v>-6.056411743164062</v>
+        <v>-6.710937023162842</v>
       </c>
       <c r="G42" t="n">
-        <v>-9.089858055114746</v>
+        <v>-8.184427261352539</v>
       </c>
       <c r="H42" t="n">
-        <v>3.366066932678223</v>
+        <v>1.648319125175476</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9999999999789329</v>
+        <v>1.000000716670502</v>
       </c>
       <c r="B43" t="n">
-        <v>327212862.8340886</v>
+        <v>378.8398594753247</v>
       </c>
       <c r="C43" t="n">
-        <v>4.14646053314209</v>
+        <v>9.956888198852539</v>
       </c>
       <c r="D43" t="n">
-        <v>5.195571422576904</v>
+        <v>3.978744268417358</v>
       </c>
       <c r="E43" t="n">
-        <v>3.621502876281738</v>
+        <v>4.756276607513428</v>
       </c>
       <c r="F43" t="n">
-        <v>-4.128128528594971</v>
+        <v>-3.060490846633911</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.493937492370605</v>
+        <v>-5.112500667572021</v>
       </c>
       <c r="H43" t="n">
-        <v>2.301235914230347</v>
+        <v>3.920912027359009</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.000000000001789</v>
+        <v>1.000000030789375</v>
       </c>
       <c r="B44" t="n">
-        <v>-629447671.9172032</v>
+        <v>-12.82270424953359</v>
       </c>
       <c r="C44" t="n">
-        <v>7.165080070495605</v>
+        <v>6.449461936950684</v>
       </c>
       <c r="D44" t="n">
-        <v>2.994858026504517</v>
+        <v>0.3268660306930542</v>
       </c>
       <c r="E44" t="n">
-        <v>3.516398429870605</v>
+        <v>5.691595077514648</v>
       </c>
       <c r="F44" t="n">
-        <v>-7.64389181137085</v>
+        <v>-8.663524627685547</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.68282413482666</v>
+        <v>-11.23757839202881</v>
       </c>
       <c r="H44" t="n">
-        <v>3.219171047210693</v>
+        <v>2.740109920501709</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9999999999998302</v>
+        <v>1.000000000281756</v>
       </c>
       <c r="B45" t="n">
-        <v>782869358.9793085</v>
+        <v>12.13597016420181</v>
       </c>
       <c r="C45" t="n">
-        <v>7.343530654907227</v>
+        <v>7.062413215637207</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.4419060945510864</v>
+        <v>-1.647126197814941</v>
       </c>
       <c r="E45" t="n">
-        <v>4.416713237762451</v>
+        <v>3.385728120803833</v>
       </c>
       <c r="F45" t="n">
-        <v>-8.418839454650879</v>
+        <v>-5.567963123321533</v>
       </c>
       <c r="G45" t="n">
-        <v>-9.380785942077637</v>
+        <v>-10.03358173370361</v>
       </c>
       <c r="H45" t="n">
-        <v>4.309469699859619</v>
+        <v>4.087451457977295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.000000000000019</v>
+        <v>0.9999999999664921</v>
       </c>
       <c r="B46" t="n">
-        <v>-1252752377.189279</v>
+        <v>2.44754251275333</v>
       </c>
       <c r="C46" t="n">
-        <v>7.628774642944336</v>
+        <v>9.384305000305176</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2177721261978149</v>
+        <v>-3.758740425109863</v>
       </c>
       <c r="E46" t="n">
-        <v>3.417239189147949</v>
+        <v>3.51796555519104</v>
       </c>
       <c r="F46" t="n">
-        <v>-8.012555122375488</v>
+        <v>-9.33400821685791</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.015175342559814</v>
+        <v>-9.896098136901855</v>
       </c>
       <c r="H46" t="n">
-        <v>5.042635440826416</v>
+        <v>4.088279247283936</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9999999999999979</v>
+        <v>1.000000000003905</v>
       </c>
       <c r="B47" t="n">
-        <v>1936407098.723585</v>
+        <v>1.601946925094203</v>
       </c>
       <c r="C47" t="n">
-        <v>7.653347969055176</v>
+        <v>9.340998649597168</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.840800285339355</v>
+        <v>-7.098080158233643</v>
       </c>
       <c r="E47" t="n">
-        <v>1.896527528762817</v>
+        <v>3.93381929397583</v>
       </c>
       <c r="F47" t="n">
-        <v>-8.074653625488281</v>
+        <v>-10.48462200164795</v>
       </c>
       <c r="G47" t="n">
-        <v>-11.17644691467285</v>
+        <v>-4.796414852142334</v>
       </c>
       <c r="H47" t="n">
-        <v>4.456645488739014</v>
+        <v>4.001474857330322</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>1.000000000000861</v>
       </c>
       <c r="B48" t="n">
-        <v>-537007727.6064098</v>
+        <v>0.6901489951853556</v>
       </c>
       <c r="C48" t="n">
-        <v>5.294293880462646</v>
+        <v>3.2303307056427</v>
       </c>
       <c r="D48" t="n">
-        <v>-8.936630249023438</v>
+        <v>-8.222044944763184</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.9915367364883423</v>
+        <v>-0.3330569565296173</v>
       </c>
       <c r="F48" t="n">
-        <v>-9.520320892333984</v>
+        <v>-6.738816738128662</v>
       </c>
       <c r="G48" t="n">
-        <v>-13.54607009887695</v>
+        <v>-9.195765495300293</v>
       </c>
       <c r="H48" t="n">
-        <v>4.707723617553711</v>
+        <v>3.716835260391235</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>1.000000000000087</v>
       </c>
       <c r="B49" t="n">
-        <v>172694985.3418977</v>
+        <v>0.9806778820693435</v>
       </c>
       <c r="C49" t="n">
-        <v>1.779324531555176</v>
+        <v>5.385818958282471</v>
       </c>
       <c r="D49" t="n">
-        <v>-11.2612771987915</v>
+        <v>-11.04417037963867</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.5415372252464294</v>
+        <v>-0.5892403721809387</v>
       </c>
       <c r="F49" t="n">
-        <v>-9.469868659973145</v>
+        <v>-9.061789512634277</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.548924446105957</v>
+        <v>-4.354310512542725</v>
       </c>
       <c r="H49" t="n">
-        <v>4.55206298828125</v>
+        <v>5.9588303565979</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>1.000000000000017</v>
       </c>
       <c r="B50" t="n">
-        <v>140791263.8711056</v>
+        <v>0.998168661564369</v>
       </c>
       <c r="C50" t="n">
-        <v>5.794784069061279</v>
+        <v>3.738742589950562</v>
       </c>
       <c r="D50" t="n">
-        <v>-10.01843070983887</v>
+        <v>-9.293888092041016</v>
       </c>
       <c r="E50" t="n">
-        <v>-2.490528345108032</v>
+        <v>-2.466341257095337</v>
       </c>
       <c r="F50" t="n">
-        <v>-10.76559734344482</v>
+        <v>-9.192286491394043</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.033401966094971</v>
+        <v>-5.335946083068848</v>
       </c>
       <c r="H50" t="n">
-        <v>6.429047107696533</v>
+        <v>3.190438747406006</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="B51" t="n">
-        <v>11656926.325853</v>
+        <v>0.998168661564369</v>
       </c>
       <c r="C51" t="n">
-        <v>4.51434326171875</v>
+        <v>3.881455183029175</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.657394886016846</v>
+        <v>-8.441463470458984</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.969679594039917</v>
+        <v>-0.4846278131008148</v>
       </c>
       <c r="F51" t="n">
-        <v>-9.930767059326172</v>
+        <v>-12.83598041534424</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.862458229064941</v>
+        <v>-3.353863716125488</v>
       </c>
       <c r="H51" t="n">
-        <v>8.647357940673828</v>
+        <v>3.155097961425781</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="B52" t="n">
-        <v>11656926.325853</v>
+        <v>0.9994228308819822</v>
       </c>
       <c r="C52" t="n">
-        <v>3.838231801986694</v>
+        <v>2.419675827026367</v>
       </c>
       <c r="D52" t="n">
-        <v>-6.67451286315918</v>
+        <v>-8.407197952270508</v>
       </c>
       <c r="E52" t="n">
-        <v>-5.057930946350098</v>
+        <v>-0.8141533136367798</v>
       </c>
       <c r="F52" t="n">
-        <v>-10.97615623474121</v>
+        <v>-10.07937240600586</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.308623790740967</v>
+        <v>-1.176482319831848</v>
       </c>
       <c r="H52" t="n">
-        <v>7.221131324768066</v>
+        <v>2.987604379653931</v>
       </c>
     </row>
   </sheetData>
